--- a/Bases/emdata_dummies_cds.xlsx
+++ b/Bases/emdata_dummies_cds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">t0</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t xml:space="preserve">na.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total.Affected</t>
   </si>
 </sst>
 </file>
@@ -378,6 +381,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -392,6 +398,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>30040</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -406,6 +415,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>14072</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -420,6 +432,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>190100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -434,6 +449,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>32530</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -448,6 +466,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>16828</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -462,6 +483,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>20005</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -476,6 +500,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>120600</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -490,6 +517,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>22019</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -504,6 +534,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>100012</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -518,6 +551,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>83381</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -532,6 +568,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>12833</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -546,6 +585,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>532898</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -560,6 +602,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>105313</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -574,6 +619,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>26000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -588,6 +636,9 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>27645</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -602,6 +653,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>18509</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -616,6 +670,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>615500</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -630,6 +687,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>68761</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -644,6 +704,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -658,6 +721,9 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="n">
+        <v>3177923</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -672,6 +738,9 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
+      <c r="E22" t="n">
+        <v>35543</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -686,6 +755,9 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
+      <c r="E23" t="n">
+        <v>265106</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -700,6 +772,9 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
+      <c r="E24" t="n">
+        <v>45551</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -714,6 +789,9 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
+      <c r="E25" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -728,6 +806,9 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
+      <c r="E26" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -742,6 +823,9 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
+      <c r="E27" t="n">
+        <v>137660</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -756,6 +840,9 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
+      <c r="E28" t="n">
+        <v>658331</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -770,6 +857,9 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
+      <c r="E29" t="n">
+        <v>459567</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -784,6 +874,9 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
+      <c r="E30" t="n">
+        <v>22154</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -798,6 +891,9 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
+      <c r="E31" t="n">
+        <v>25155</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -812,6 +908,9 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
+      <c r="E32" t="n">
+        <v>21800</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -826,6 +925,9 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
+      <c r="E33" t="n">
+        <v>14201</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -840,6 +942,9 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
+      <c r="E34" t="n">
+        <v>45976596</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -854,6 +959,9 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
+      <c r="E35" t="n">
+        <v>351000</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -868,6 +976,9 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
+      <c r="E36" t="n">
+        <v>13529</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -882,6 +993,9 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
+      <c r="E37" t="n">
+        <v>1000589</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -896,6 +1010,9 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
+      <c r="E38" t="n">
+        <v>10077</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -910,6 +1027,9 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
+      <c r="E39" t="n">
+        <v>27169</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -924,6 +1044,9 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
+      <c r="E40" t="n">
+        <v>65336</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -938,6 +1061,9 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
+      <c r="E41" t="n">
+        <v>339792</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -952,6 +1078,9 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
+      <c r="E42" t="n">
+        <v>2501798</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -966,6 +1095,9 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
+      <c r="E43" t="n">
+        <v>10515</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -980,6 +1112,9 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
+      <c r="E44" t="n">
+        <v>50011</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -994,6 +1129,9 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
+      <c r="E45" t="n">
+        <v>2671556</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1008,6 +1146,9 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
+      <c r="E46" t="n">
+        <v>25232</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1022,6 +1163,9 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
+      <c r="E47" t="n">
+        <v>112000</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1036,6 +1180,9 @@
       <c r="D48" t="n">
         <v>0</v>
       </c>
+      <c r="E48" t="n">
+        <v>15060</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1050,6 +1197,9 @@
       <c r="D49" t="n">
         <v>0</v>
       </c>
+      <c r="E49" t="n">
+        <v>137140</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1064,6 +1214,9 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
+      <c r="E50" t="n">
+        <v>11864</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1078,6 +1231,9 @@
       <c r="D51" t="n">
         <v>0</v>
       </c>
+      <c r="E51" t="n">
+        <v>64501</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1092,6 +1248,9 @@
       <c r="D52" t="n">
         <v>0</v>
       </c>
+      <c r="E52" t="n">
+        <v>10121</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1106,6 +1265,9 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
+      <c r="E53" t="n">
+        <v>32938</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1120,6 +1282,9 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
+      <c r="E54" t="n">
+        <v>143000</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1134,6 +1299,9 @@
       <c r="D55" t="n">
         <v>0</v>
       </c>
+      <c r="E55" t="n">
+        <v>36641</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1148,6 +1316,9 @@
       <c r="D56" t="n">
         <v>0</v>
       </c>
+      <c r="E56" t="n">
+        <v>49011</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1162,6 +1333,9 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
+      <c r="E57" t="n">
+        <v>24297</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1176,6 +1350,9 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
+      <c r="E58" t="n">
+        <v>34234</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1190,6 +1367,9 @@
       <c r="D59" t="n">
         <v>0</v>
       </c>
+      <c r="E59" t="n">
+        <v>155052</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1204,6 +1384,9 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
+      <c r="E60" t="n">
+        <v>744821</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1218,6 +1401,9 @@
       <c r="D61" t="n">
         <v>0</v>
       </c>
+      <c r="E61" t="n">
+        <v>10015</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1232,6 +1418,9 @@
       <c r="D62" t="n">
         <v>0</v>
       </c>
+      <c r="E62" t="n">
+        <v>427740</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1246,6 +1435,9 @@
       <c r="D63" t="n">
         <v>0</v>
       </c>
+      <c r="E63" t="n">
+        <v>80555</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1260,6 +1452,9 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
+      <c r="E64" t="n">
+        <v>2198785</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1274,6 +1469,9 @@
       <c r="D65" t="n">
         <v>0</v>
       </c>
+      <c r="E65" t="n">
+        <v>55935</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1288,6 +1486,9 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
+      <c r="E66" t="n">
+        <v>123887</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1302,6 +1503,9 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
+      <c r="E67" t="n">
+        <v>538050</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1316,6 +1520,9 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
+      <c r="E68" t="n">
+        <v>58300</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1330,6 +1537,9 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
+      <c r="E69" t="n">
+        <v>90500</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1344,6 +1554,9 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
+      <c r="E70" t="n">
+        <v>32002</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1358,6 +1571,9 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
+      <c r="E71" t="n">
+        <v>450000</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1372,6 +1588,9 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
+      <c r="E72" t="n">
+        <v>83158</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1386,6 +1605,9 @@
       <c r="D73" t="n">
         <v>0</v>
       </c>
+      <c r="E73" t="n">
+        <v>513387</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1400,6 +1622,9 @@
       <c r="D74" t="n">
         <v>0</v>
       </c>
+      <c r="E74" t="n">
+        <v>75021</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1414,6 +1639,9 @@
       <c r="D75" t="n">
         <v>0</v>
       </c>
+      <c r="E75" t="n">
+        <v>225015</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1428,6 +1656,9 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
+      <c r="E76" t="n">
+        <v>184723</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1442,6 +1673,9 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
+      <c r="E77" t="n">
+        <v>27000</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1456,6 +1690,9 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
+      <c r="E78" t="n">
+        <v>1120513</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1470,6 +1707,9 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
+      <c r="E79" t="n">
+        <v>255324</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1484,6 +1724,9 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
+      <c r="E80" t="n">
+        <v>82355</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1498,6 +1741,9 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
+      <c r="E81" t="n">
+        <v>41236</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -1512,6 +1758,9 @@
       <c r="D82" t="n">
         <v>0</v>
       </c>
+      <c r="E82" t="n">
+        <v>207883</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1526,6 +1775,9 @@
       <c r="D83" t="n">
         <v>0</v>
       </c>
+      <c r="E83" t="n">
+        <v>681499</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1540,6 +1792,9 @@
       <c r="D84" t="n">
         <v>0</v>
       </c>
+      <c r="E84" t="n">
+        <v>12247</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -1554,6 +1809,9 @@
       <c r="D85" t="n">
         <v>0</v>
       </c>
+      <c r="E85" t="n">
+        <v>11182</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -1568,6 +1826,9 @@
       <c r="D86" t="n">
         <v>0</v>
       </c>
+      <c r="E86" t="n">
+        <v>29832</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1582,6 +1843,9 @@
       <c r="D87" t="n">
         <v>0</v>
       </c>
+      <c r="E87" t="n">
+        <v>37200</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -1596,6 +1860,9 @@
       <c r="D88" t="n">
         <v>0</v>
       </c>
+      <c r="E88" t="n">
+        <v>86018</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -1610,6 +1877,9 @@
       <c r="D89" t="n">
         <v>0</v>
       </c>
+      <c r="E89" t="n">
+        <v>218325</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -1624,6 +1894,9 @@
       <c r="D90" t="n">
         <v>0</v>
       </c>
+      <c r="E90" t="n">
+        <v>1200250</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -1638,6 +1911,9 @@
       <c r="D91" t="n">
         <v>0</v>
       </c>
+      <c r="E91" t="n">
+        <v>256000</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -1652,6 +1928,9 @@
       <c r="D92" t="n">
         <v>0</v>
       </c>
+      <c r="E92" t="n">
+        <v>133349</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -1666,6 +1945,9 @@
       <c r="D93" t="n">
         <v>0</v>
       </c>
+      <c r="E93" t="n">
+        <v>23403</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -1680,6 +1962,9 @@
       <c r="D94" t="n">
         <v>0</v>
       </c>
+      <c r="E94" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1694,6 +1979,9 @@
       <c r="D95" t="n">
         <v>0</v>
       </c>
+      <c r="E95" t="n">
+        <v>13811</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -1708,6 +1996,9 @@
       <c r="D96" t="n">
         <v>0</v>
       </c>
+      <c r="E96" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -1722,6 +2013,9 @@
       <c r="D97" t="n">
         <v>0</v>
       </c>
+      <c r="E97" t="n">
+        <v>102852</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -1736,6 +2030,9 @@
       <c r="D98" t="n">
         <v>0</v>
       </c>
+      <c r="E98" t="n">
+        <v>516927</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -1750,6 +2047,9 @@
       <c r="D99" t="n">
         <v>0</v>
       </c>
+      <c r="E99" t="n">
+        <v>18024</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -1764,6 +2064,9 @@
       <c r="D100" t="n">
         <v>0</v>
       </c>
+      <c r="E100" t="n">
+        <v>2000000</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -1778,6 +2081,9 @@
       <c r="D101" t="n">
         <v>0</v>
       </c>
+      <c r="E101" t="n">
+        <v>47778</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -1792,6 +2098,9 @@
       <c r="D102" t="n">
         <v>0</v>
       </c>
+      <c r="E102" t="n">
+        <v>32772</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -1806,6 +2115,9 @@
       <c r="D103" t="n">
         <v>0</v>
       </c>
+      <c r="E103" t="n">
+        <v>244220</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -1820,6 +2132,9 @@
       <c r="D104" t="n">
         <v>0</v>
       </c>
+      <c r="E104" t="n">
+        <v>11804</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -1834,6 +2149,9 @@
       <c r="D105" t="n">
         <v>0</v>
       </c>
+      <c r="E105" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -1848,6 +2166,9 @@
       <c r="D106" t="n">
         <v>0</v>
       </c>
+      <c r="E106" t="n">
+        <v>15582</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -1862,6 +2183,9 @@
       <c r="D107" t="n">
         <v>0</v>
       </c>
+      <c r="E107" t="n">
+        <v>247418</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -1876,6 +2200,9 @@
       <c r="D108" t="n">
         <v>0</v>
       </c>
+      <c r="E108" t="n">
+        <v>70607</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -1890,6 +2217,9 @@
       <c r="D109" t="n">
         <v>0</v>
       </c>
+      <c r="E109" t="n">
+        <v>24393</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -1904,6 +2234,9 @@
       <c r="D110" t="n">
         <v>0</v>
       </c>
+      <c r="E110" t="n">
+        <v>6034</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -1918,6 +2251,9 @@
       <c r="D111" t="n">
         <v>0</v>
       </c>
+      <c r="E111" t="n">
+        <v>19736</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -1932,6 +2268,9 @@
       <c r="D112" t="n">
         <v>0</v>
       </c>
+      <c r="E112" t="n">
+        <v>100653</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -1946,6 +2285,9 @@
       <c r="D113" t="n">
         <v>0</v>
       </c>
+      <c r="E113" t="n">
+        <v>39028</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -1960,6 +2302,9 @@
       <c r="D114" t="n">
         <v>0</v>
       </c>
+      <c r="E114" t="n">
+        <v>21951</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -1974,6 +2319,9 @@
       <c r="D115" t="n">
         <v>0</v>
       </c>
+      <c r="E115" t="n">
+        <v>24395</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -1988,6 +2336,9 @@
       <c r="D116" t="n">
         <v>0</v>
       </c>
+      <c r="E116" t="n">
+        <v>17912</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2002,6 +2353,9 @@
       <c r="D117" t="n">
         <v>0</v>
       </c>
+      <c r="E117" t="n">
+        <v>10992</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2016,6 +2370,9 @@
       <c r="D118" t="n">
         <v>0</v>
       </c>
+      <c r="E118" t="n">
+        <v>19210</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2030,6 +2387,9 @@
       <c r="D119" t="n">
         <v>0</v>
       </c>
+      <c r="E119" t="n">
+        <v>29030</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2044,6 +2404,9 @@
       <c r="D120" t="n">
         <v>0</v>
       </c>
+      <c r="E120" t="n">
+        <v>26499</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2058,6 +2421,9 @@
       <c r="D121" t="n">
         <v>0</v>
       </c>
+      <c r="E121" t="n">
+        <v>15390</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2072,6 +2438,9 @@
       <c r="D122" t="n">
         <v>0</v>
       </c>
+      <c r="E122" t="n">
+        <v>24903</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2086,6 +2455,9 @@
       <c r="D123" t="n">
         <v>0</v>
       </c>
+      <c r="E123" t="n">
+        <v>13541</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2100,6 +2472,9 @@
       <c r="D124" t="n">
         <v>0</v>
       </c>
+      <c r="E124" t="n">
+        <v>130400</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2114,6 +2489,9 @@
       <c r="D125" t="n">
         <v>0</v>
       </c>
+      <c r="E125" t="n">
+        <v>17886</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2128,6 +2506,9 @@
       <c r="D126" t="n">
         <v>0</v>
       </c>
+      <c r="E126" t="n">
+        <v>18005</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2141,6 +2522,9 @@
       </c>
       <c r="D127" t="n">
         <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2204645</v>
       </c>
     </row>
   </sheetData>
@@ -2170,6 +2554,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2184,6 +2571,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2198,6 +2588,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2212,6 +2605,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>90000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2226,6 +2622,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>168500</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2240,6 +2639,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>556073</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2254,6 +2656,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>33652026</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2268,6 +2673,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2282,6 +2690,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>8253000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2296,6 +2707,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>345386</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2310,6 +2724,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2324,6 +2741,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2338,6 +2758,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>85729</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2352,6 +2775,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>41530</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2366,6 +2792,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>31000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2380,6 +2809,9 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>650000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2394,6 +2826,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>16700000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2408,6 +2843,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>11230230</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2422,6 +2860,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>1270000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2436,6 +2877,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>14510</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2450,6 +2894,9 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="n">
+        <v>188046</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2464,6 +2911,9 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
+      <c r="E22" t="n">
+        <v>14500</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2478,6 +2928,9 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
+      <c r="E23" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2492,6 +2945,9 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
+      <c r="E24" t="n">
+        <v>474607</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2506,6 +2962,9 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
+      <c r="E25" t="n">
+        <v>4610000</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2520,6 +2979,9 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
+      <c r="E26" t="n">
+        <v>80000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2534,6 +2996,9 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
+      <c r="E27" t="n">
+        <v>12211</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2548,6 +3013,9 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
+      <c r="E28" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2562,6 +3030,9 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
+      <c r="E29" t="n">
+        <v>221465</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2576,6 +3047,9 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
+      <c r="E30" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2590,6 +3064,9 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
+      <c r="E31" t="n">
+        <v>17539</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2604,6 +3081,9 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
+      <c r="E32" t="n">
+        <v>116000</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2618,6 +3098,9 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
+      <c r="E33" t="n">
+        <v>10461</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2632,6 +3115,9 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
+      <c r="E34" t="n">
+        <v>36900</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2646,6 +3132,9 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
+      <c r="E35" t="n">
+        <v>350035</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2660,6 +3149,9 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
+      <c r="E36" t="n">
+        <v>356000</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2674,6 +3166,9 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
+      <c r="E37" t="n">
+        <v>4600024</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2688,6 +3183,9 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
+      <c r="E38" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2702,6 +3200,9 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
+      <c r="E39" t="n">
+        <v>1410000</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2716,6 +3217,9 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
+      <c r="E40" t="n">
+        <v>29231</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2730,6 +3234,9 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
+      <c r="E41" t="n">
+        <v>2375016</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2744,6 +3251,9 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
+      <c r="E42" t="n">
+        <v>18250</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2758,6 +3268,9 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
+      <c r="E43" t="n">
+        <v>270000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2772,6 +3285,9 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
+      <c r="E44" t="n">
+        <v>4120000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2786,6 +3302,9 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
+      <c r="E45" t="n">
+        <v>10009</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2800,6 +3319,9 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
+      <c r="E46" t="n">
+        <v>1400000</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2814,6 +3336,9 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
+      <c r="E47" t="n">
+        <v>95862</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2828,6 +3353,9 @@
       <c r="D48" t="n">
         <v>0</v>
       </c>
+      <c r="E48" t="n">
+        <v>20004</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2842,6 +3370,9 @@
       <c r="D49" t="n">
         <v>0</v>
       </c>
+      <c r="E49" t="n">
+        <v>63015</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2856,6 +3387,9 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
+      <c r="E50" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2870,6 +3404,9 @@
       <c r="D51" t="n">
         <v>0</v>
       </c>
+      <c r="E51" t="n">
+        <v>618486</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2884,6 +3421,9 @@
       <c r="D52" t="n">
         <v>0</v>
       </c>
+      <c r="E52" t="n">
+        <v>200080</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2898,6 +3438,9 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
+      <c r="E53" t="n">
+        <v>137533</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2912,6 +3455,9 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
+      <c r="E54" t="n">
+        <v>47714</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2926,6 +3472,9 @@
       <c r="D55" t="n">
         <v>0</v>
       </c>
+      <c r="E55" t="n">
+        <v>217087</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2940,6 +3489,9 @@
       <c r="D56" t="n">
         <v>0</v>
       </c>
+      <c r="E56" t="n">
+        <v>11556</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2954,6 +3506,9 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
+      <c r="E57" t="n">
+        <v>1504317</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2968,6 +3523,9 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
+      <c r="E58" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2982,6 +3540,9 @@
       <c r="D59" t="n">
         <v>0</v>
       </c>
+      <c r="E59" t="n">
+        <v>2300050</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2996,6 +3557,9 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
+      <c r="E60" t="n">
+        <v>250000</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3010,6 +3574,9 @@
       <c r="D61" t="n">
         <v>1</v>
       </c>
+      <c r="E61" t="n">
+        <v>105004000</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3024,6 +3591,9 @@
       <c r="D62" t="n">
         <v>0</v>
       </c>
+      <c r="E62" t="n">
+        <v>350000</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3038,6 +3608,9 @@
       <c r="D63" t="n">
         <v>0</v>
       </c>
+      <c r="E63" t="n">
+        <v>112742</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3052,6 +3625,9 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
+      <c r="E64" t="n">
+        <v>386000</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3066,6 +3642,9 @@
       <c r="D65" t="n">
         <v>0</v>
       </c>
+      <c r="E65" t="n">
+        <v>38000</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3080,6 +3659,9 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
+      <c r="E66" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3094,6 +3676,9 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
+      <c r="E67" t="n">
+        <v>2430000</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3108,6 +3693,9 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
+      <c r="E68" t="n">
+        <v>213000</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3122,6 +3710,9 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
+      <c r="E69" t="n">
+        <v>17500</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3136,6 +3727,9 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
+      <c r="E70" t="n">
+        <v>55000</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3150,6 +3744,9 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
+      <c r="E71" t="n">
+        <v>1162135</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3164,6 +3761,9 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
+      <c r="E72" t="n">
+        <v>1600000</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3178,6 +3778,9 @@
       <c r="D73" t="n">
         <v>0</v>
       </c>
+      <c r="E73" t="n">
+        <v>29000</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3192,6 +3795,9 @@
       <c r="D74" t="n">
         <v>1</v>
       </c>
+      <c r="E74" t="n">
+        <v>269515</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3206,6 +3812,9 @@
       <c r="D75" t="n">
         <v>0</v>
       </c>
+      <c r="E75" t="n">
+        <v>49506</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3220,6 +3829,9 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
+      <c r="E76" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3234,6 +3846,9 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
+      <c r="E77" t="n">
+        <v>89761</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3248,6 +3863,9 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
+      <c r="E78" t="n">
+        <v>12870</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3262,6 +3880,9 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
+      <c r="E79" t="n">
+        <v>450012</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3276,6 +3897,9 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
+      <c r="E80" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3290,6 +3914,9 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
+      <c r="E81" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3304,6 +3931,9 @@
       <c r="D82" t="n">
         <v>0</v>
       </c>
+      <c r="E82" t="n">
+        <v>190000</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3318,6 +3948,9 @@
       <c r="D83" t="n">
         <v>0</v>
       </c>
+      <c r="E83" t="n">
+        <v>34514</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3332,6 +3965,9 @@
       <c r="D84" t="n">
         <v>0</v>
       </c>
+      <c r="E84" t="n">
+        <v>780000</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3346,6 +3982,9 @@
       <c r="D85" t="n">
         <v>0</v>
       </c>
+      <c r="E85" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3360,6 +3999,9 @@
       <c r="D86" t="n">
         <v>0</v>
       </c>
+      <c r="E86" t="n">
+        <v>538166</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3374,6 +4016,9 @@
       <c r="D87" t="n">
         <v>0</v>
       </c>
+      <c r="E87" t="n">
+        <v>1600000</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3388,6 +4033,9 @@
       <c r="D88" t="n">
         <v>0</v>
       </c>
+      <c r="E88" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3402,6 +4050,9 @@
       <c r="D89" t="n">
         <v>0</v>
       </c>
+      <c r="E89" t="n">
+        <v>3000000</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3416,6 +4067,9 @@
       <c r="D90" t="n">
         <v>0</v>
       </c>
+      <c r="E90" t="n">
+        <v>810000</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3430,6 +4084,9 @@
       <c r="D91" t="n">
         <v>0</v>
       </c>
+      <c r="E91" t="n">
+        <v>104755</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3444,6 +4101,9 @@
       <c r="D92" t="n">
         <v>0</v>
       </c>
+      <c r="E92" t="n">
+        <v>118000</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3458,6 +4118,9 @@
       <c r="D93" t="n">
         <v>0</v>
       </c>
+      <c r="E93" t="n">
+        <v>1200091</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3472,6 +4135,9 @@
       <c r="D94" t="n">
         <v>0</v>
       </c>
+      <c r="E94" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3486,6 +4152,9 @@
       <c r="D95" t="n">
         <v>0</v>
       </c>
+      <c r="E95" t="n">
+        <v>411000</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3500,6 +4169,9 @@
       <c r="D96" t="n">
         <v>0</v>
       </c>
+      <c r="E96" t="n">
+        <v>84420</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3514,6 +4186,9 @@
       <c r="D97" t="n">
         <v>0</v>
       </c>
+      <c r="E97" t="n">
+        <v>1500015</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3528,6 +4203,9 @@
       <c r="D98" t="n">
         <v>0</v>
       </c>
+      <c r="E98" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3542,6 +4220,9 @@
       <c r="D99" t="n">
         <v>0</v>
       </c>
+      <c r="E99" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3556,6 +4237,9 @@
       <c r="D100" t="n">
         <v>0</v>
       </c>
+      <c r="E100" t="n">
+        <v>31250</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3570,6 +4254,9 @@
       <c r="D101" t="n">
         <v>0</v>
       </c>
+      <c r="E101" t="n">
+        <v>5630000</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3584,6 +4271,9 @@
       <c r="D102" t="n">
         <v>0</v>
       </c>
+      <c r="E102" t="n">
+        <v>1150900</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3598,6 +4288,9 @@
       <c r="D103" t="n">
         <v>0</v>
       </c>
+      <c r="E103" t="n">
+        <v>106000</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3612,6 +4305,9 @@
       <c r="D104" t="n">
         <v>0</v>
       </c>
+      <c r="E104" t="n">
+        <v>18000</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3626,6 +4322,9 @@
       <c r="D105" t="n">
         <v>0</v>
       </c>
+      <c r="E105" t="n">
+        <v>39372000</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3640,6 +4339,9 @@
       <c r="D106" t="n">
         <v>0</v>
       </c>
+      <c r="E106" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3654,6 +4356,9 @@
       <c r="D107" t="n">
         <v>0</v>
       </c>
+      <c r="E107" t="n">
+        <v>10004</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3668,6 +4373,9 @@
       <c r="D108" t="n">
         <v>0</v>
       </c>
+      <c r="E108" t="n">
+        <v>118000</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3682,6 +4390,9 @@
       <c r="D109" t="n">
         <v>0</v>
       </c>
+      <c r="E109" t="n">
+        <v>35020</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3696,6 +4407,9 @@
       <c r="D110" t="n">
         <v>0</v>
       </c>
+      <c r="E110" t="n">
+        <v>18000</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3710,6 +4424,9 @@
       <c r="D111" t="n">
         <v>0</v>
       </c>
+      <c r="E111" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3724,6 +4441,9 @@
       <c r="D112" t="n">
         <v>0</v>
       </c>
+      <c r="E112" t="n">
+        <v>13014</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3738,6 +4458,9 @@
       <c r="D113" t="n">
         <v>0</v>
       </c>
+      <c r="E113" t="n">
+        <v>107670</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3752,6 +4475,9 @@
       <c r="D114" t="n">
         <v>0</v>
       </c>
+      <c r="E114" t="n">
+        <v>680000</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3766,6 +4492,9 @@
       <c r="D115" t="n">
         <v>0</v>
       </c>
+      <c r="E115" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3780,6 +4509,9 @@
       <c r="D116" t="n">
         <v>0</v>
       </c>
+      <c r="E116" t="n">
+        <v>28500</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3794,6 +4526,9 @@
       <c r="D117" t="n">
         <v>0</v>
       </c>
+      <c r="E117" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3808,6 +4543,9 @@
       <c r="D118" t="n">
         <v>0</v>
       </c>
+      <c r="E118" t="n">
+        <v>80000</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3822,6 +4560,9 @@
       <c r="D119" t="n">
         <v>0</v>
       </c>
+      <c r="E119" t="n">
+        <v>74938</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3836,6 +4577,9 @@
       <c r="D120" t="n">
         <v>0</v>
       </c>
+      <c r="E120" t="n">
+        <v>2791999</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3850,6 +4594,9 @@
       <c r="D121" t="n">
         <v>0</v>
       </c>
+      <c r="E121" t="n">
+        <v>134000000</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3864,6 +4611,9 @@
       <c r="D122" t="n">
         <v>0</v>
       </c>
+      <c r="E122" t="n">
+        <v>2100000</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3878,6 +4628,9 @@
       <c r="D123" t="n">
         <v>0</v>
       </c>
+      <c r="E123" t="n">
+        <v>157000</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3892,6 +4645,9 @@
       <c r="D124" t="n">
         <v>0</v>
       </c>
+      <c r="E124" t="n">
+        <v>15007</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3906,6 +4662,9 @@
       <c r="D125" t="n">
         <v>0</v>
       </c>
+      <c r="E125" t="n">
+        <v>47200</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3920,6 +4679,9 @@
       <c r="D126" t="n">
         <v>0</v>
       </c>
+      <c r="E126" t="n">
+        <v>64136</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3934,6 +4696,9 @@
       <c r="D127" t="n">
         <v>0</v>
       </c>
+      <c r="E127" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3948,6 +4713,9 @@
       <c r="D128" t="n">
         <v>0</v>
       </c>
+      <c r="E128" t="n">
+        <v>12428</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3962,6 +4730,9 @@
       <c r="D129" t="n">
         <v>0</v>
       </c>
+      <c r="E129" t="n">
+        <v>130000</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3976,6 +4747,9 @@
       <c r="D130" t="n">
         <v>0</v>
       </c>
+      <c r="E130" t="n">
+        <v>200321</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3990,6 +4764,9 @@
       <c r="D131" t="n">
         <v>0</v>
       </c>
+      <c r="E131" t="n">
+        <v>45000</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4004,6 +4781,9 @@
       <c r="D132" t="n">
         <v>0</v>
       </c>
+      <c r="E132" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4018,6 +4798,9 @@
       <c r="D133" t="n">
         <v>0</v>
       </c>
+      <c r="E133" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4032,6 +4815,9 @@
       <c r="D134" t="n">
         <v>0</v>
       </c>
+      <c r="E134" t="n">
+        <v>31000</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4046,6 +4832,9 @@
       <c r="D135" t="n">
         <v>0</v>
       </c>
+      <c r="E135" t="n">
+        <v>31600</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4060,6 +4849,9 @@
       <c r="D136" t="n">
         <v>0</v>
       </c>
+      <c r="E136" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4074,6 +4866,9 @@
       <c r="D137" t="n">
         <v>0</v>
       </c>
+      <c r="E137" t="n">
+        <v>67900000</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4088,6 +4883,9 @@
       <c r="D138" t="n">
         <v>0</v>
       </c>
+      <c r="E138" t="n">
+        <v>1600000</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4102,6 +4900,9 @@
       <c r="D139" t="n">
         <v>0</v>
       </c>
+      <c r="E139" t="n">
+        <v>78000</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4116,6 +4917,9 @@
       <c r="D140" t="n">
         <v>0</v>
       </c>
+      <c r="E140" t="n">
+        <v>190000</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4130,6 +4934,9 @@
       <c r="D141" t="n">
         <v>0</v>
       </c>
+      <c r="E141" t="n">
+        <v>29000</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4144,6 +4951,9 @@
       <c r="D142" t="n">
         <v>0</v>
       </c>
+      <c r="E142" t="n">
+        <v>3800000</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4158,6 +4968,9 @@
       <c r="D143" t="n">
         <v>0</v>
       </c>
+      <c r="E143" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4172,6 +4985,9 @@
       <c r="D144" t="n">
         <v>0</v>
       </c>
+      <c r="E144" t="n">
+        <v>20000000</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4186,6 +5002,9 @@
       <c r="D145" t="n">
         <v>0</v>
       </c>
+      <c r="E145" t="n">
+        <v>498924</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4200,6 +5019,9 @@
       <c r="D146" t="n">
         <v>0</v>
       </c>
+      <c r="E146" t="n">
+        <v>250000</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4214,6 +5036,9 @@
       <c r="D147" t="n">
         <v>0</v>
       </c>
+      <c r="E147" t="n">
+        <v>50029</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4228,6 +5053,9 @@
       <c r="D148" t="n">
         <v>0</v>
       </c>
+      <c r="E148" t="n">
+        <v>89000</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4242,6 +5070,9 @@
       <c r="D149" t="n">
         <v>0</v>
       </c>
+      <c r="E149" t="n">
+        <v>56000</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4256,6 +5087,9 @@
       <c r="D150" t="n">
         <v>0</v>
       </c>
+      <c r="E150" t="n">
+        <v>13119000</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4270,6 +5104,9 @@
       <c r="D151" t="n">
         <v>0</v>
       </c>
+      <c r="E151" t="n">
+        <v>210000</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4284,6 +5121,9 @@
       <c r="D152" t="n">
         <v>0</v>
       </c>
+      <c r="E152" t="n">
+        <v>185000</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4298,6 +5138,9 @@
       <c r="D153" t="n">
         <v>0</v>
       </c>
+      <c r="E153" t="n">
+        <v>125000</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4312,6 +5155,9 @@
       <c r="D154" t="n">
         <v>0</v>
       </c>
+      <c r="E154" t="n">
+        <v>17440000</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4326,6 +5172,9 @@
       <c r="D155" t="n">
         <v>0</v>
       </c>
+      <c r="E155" t="n">
+        <v>140000</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4340,6 +5189,9 @@
       <c r="D156" t="n">
         <v>0</v>
       </c>
+      <c r="E156" t="n">
+        <v>220000</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5206,9 @@
       <c r="D157" t="n">
         <v>0</v>
       </c>
+      <c r="E157" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4368,6 +5223,9 @@
       <c r="D158" t="n">
         <v>0</v>
       </c>
+      <c r="E158" t="n">
+        <v>500000</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4382,6 +5240,9 @@
       <c r="D159" t="n">
         <v>0</v>
       </c>
+      <c r="E159" t="n">
+        <v>210000</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4396,6 +5257,9 @@
       <c r="D160" t="n">
         <v>0</v>
       </c>
+      <c r="E160" t="n">
+        <v>17518</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4410,6 +5274,9 @@
       <c r="D161" t="n">
         <v>0</v>
       </c>
+      <c r="E161" t="n">
+        <v>125000</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4424,6 +5291,9 @@
       <c r="D162" t="n">
         <v>0</v>
       </c>
+      <c r="E162" t="n">
+        <v>15210</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4438,6 +5308,9 @@
       <c r="D163" t="n">
         <v>0</v>
       </c>
+      <c r="E163" t="n">
+        <v>10500</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4452,6 +5325,9 @@
       <c r="D164" t="n">
         <v>0</v>
       </c>
+      <c r="E164" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4466,6 +5342,9 @@
       <c r="D165" t="n">
         <v>0</v>
       </c>
+      <c r="E165" t="n">
+        <v>180766</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4480,6 +5359,9 @@
       <c r="D166" t="n">
         <v>0</v>
       </c>
+      <c r="E166" t="n">
+        <v>248846</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4494,6 +5376,9 @@
       <c r="D167" t="n">
         <v>0</v>
       </c>
+      <c r="E167" t="n">
+        <v>58040</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4508,6 +5393,9 @@
       <c r="D168" t="n">
         <v>0</v>
       </c>
+      <c r="E168" t="n">
+        <v>13860</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4522,6 +5410,9 @@
       <c r="D169" t="n">
         <v>0</v>
       </c>
+      <c r="E169" t="n">
+        <v>115000</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4536,6 +5427,9 @@
       <c r="D170" t="n">
         <v>0</v>
       </c>
+      <c r="E170" t="n">
+        <v>255000</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4550,6 +5444,9 @@
       <c r="D171" t="n">
         <v>0</v>
       </c>
+      <c r="E171" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4564,6 +5461,9 @@
       <c r="D172" t="n">
         <v>0</v>
       </c>
+      <c r="E172" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4578,6 +5478,9 @@
       <c r="D173" t="n">
         <v>0</v>
       </c>
+      <c r="E173" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4592,6 +5495,9 @@
       <c r="D174" t="n">
         <v>0</v>
       </c>
+      <c r="E174" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4606,6 +5512,9 @@
       <c r="D175" t="n">
         <v>0</v>
       </c>
+      <c r="E175" t="n">
+        <v>280500</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4620,6 +5529,9 @@
       <c r="D176" t="n">
         <v>0</v>
       </c>
+      <c r="E176" t="n">
+        <v>625000</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4634,6 +5546,9 @@
       <c r="D177" t="n">
         <v>0</v>
       </c>
+      <c r="E177" t="n">
+        <v>3500000</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4648,6 +5563,9 @@
       <c r="D178" t="n">
         <v>0</v>
       </c>
+      <c r="E178" t="n">
+        <v>718500</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4662,6 +5580,9 @@
       <c r="D179" t="n">
         <v>0</v>
       </c>
+      <c r="E179" t="n">
+        <v>125000</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4676,6 +5597,9 @@
       <c r="D180" t="n">
         <v>0</v>
       </c>
+      <c r="E180" t="n">
+        <v>1075000</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4690,6 +5614,9 @@
       <c r="D181" t="n">
         <v>0</v>
       </c>
+      <c r="E181" t="n">
+        <v>255000</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4704,6 +5631,9 @@
       <c r="D182" t="n">
         <v>0</v>
       </c>
+      <c r="E182" t="n">
+        <v>23640</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4718,6 +5648,9 @@
       <c r="D183" t="n">
         <v>0</v>
       </c>
+      <c r="E183" t="n">
+        <v>51781</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4732,6 +5665,9 @@
       <c r="D184" t="n">
         <v>0</v>
       </c>
+      <c r="E184" t="n">
+        <v>150030</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4746,6 +5682,9 @@
       <c r="D185" t="n">
         <v>0</v>
       </c>
+      <c r="E185" t="n">
+        <v>16000</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4760,6 +5699,9 @@
       <c r="D186" t="n">
         <v>0</v>
       </c>
+      <c r="E186" t="n">
+        <v>75000</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4774,6 +5716,9 @@
       <c r="D187" t="n">
         <v>0</v>
       </c>
+      <c r="E187" t="n">
+        <v>90000</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4788,6 +5733,9 @@
       <c r="D188" t="n">
         <v>0</v>
       </c>
+      <c r="E188" t="n">
+        <v>84250</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4802,6 +5750,9 @@
       <c r="D189" t="n">
         <v>0</v>
       </c>
+      <c r="E189" t="n">
+        <v>43300</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4816,6 +5767,9 @@
       <c r="D190" t="n">
         <v>0</v>
       </c>
+      <c r="E190" t="n">
+        <v>22500</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4830,6 +5784,9 @@
       <c r="D191" t="n">
         <v>0</v>
       </c>
+      <c r="E191" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4844,6 +5801,9 @@
       <c r="D192" t="n">
         <v>0</v>
       </c>
+      <c r="E192" t="n">
+        <v>128182</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4858,6 +5818,9 @@
       <c r="D193" t="n">
         <v>0</v>
       </c>
+      <c r="E193" t="n">
+        <v>260350</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4872,6 +5835,9 @@
       <c r="D194" t="n">
         <v>1</v>
       </c>
+      <c r="E194" t="n">
+        <v>67500</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4886,6 +5852,9 @@
       <c r="D195" t="n">
         <v>0</v>
       </c>
+      <c r="E195" t="n">
+        <v>41151</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4900,6 +5869,9 @@
       <c r="D196" t="n">
         <v>0</v>
       </c>
+      <c r="E196" t="n">
+        <v>5500000</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4914,6 +5886,9 @@
       <c r="D197" t="n">
         <v>0</v>
       </c>
+      <c r="E197" t="n">
+        <v>720000</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4928,6 +5903,9 @@
       <c r="D198" t="n">
         <v>0</v>
       </c>
+      <c r="E198" t="n">
+        <v>450000</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -4942,6 +5920,9 @@
       <c r="D199" t="n">
         <v>0</v>
       </c>
+      <c r="E199" t="n">
+        <v>500052</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4956,6 +5937,9 @@
       <c r="D200" t="n">
         <v>0</v>
       </c>
+      <c r="E200" t="n">
+        <v>12555</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4970,6 +5954,9 @@
       <c r="D201" t="n">
         <v>0</v>
       </c>
+      <c r="E201" t="n">
+        <v>15000000</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4984,6 +5971,9 @@
       <c r="D202" t="n">
         <v>0</v>
       </c>
+      <c r="E202" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4998,6 +5988,9 @@
       <c r="D203" t="n">
         <v>0</v>
       </c>
+      <c r="E203" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5012,6 +6005,9 @@
       <c r="D204" t="n">
         <v>0</v>
       </c>
+      <c r="E204" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5026,6 +6022,9 @@
       <c r="D205" t="n">
         <v>0</v>
       </c>
+      <c r="E205" t="n">
+        <v>61000</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5040,6 +6039,9 @@
       <c r="D206" t="n">
         <v>0</v>
       </c>
+      <c r="E206" t="n">
+        <v>110500</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5054,6 +6056,9 @@
       <c r="D207" t="n">
         <v>0</v>
       </c>
+      <c r="E207" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5068,6 +6073,9 @@
       <c r="D208" t="n">
         <v>0</v>
       </c>
+      <c r="E208" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5082,6 +6090,9 @@
       <c r="D209" t="n">
         <v>0</v>
       </c>
+      <c r="E209" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5096,6 +6107,9 @@
       <c r="D210" t="n">
         <v>0</v>
       </c>
+      <c r="E210" t="n">
+        <v>1065000</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5110,6 +6124,9 @@
       <c r="D211" t="n">
         <v>0</v>
       </c>
+      <c r="E211" t="n">
+        <v>18000</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5124,6 +6141,9 @@
       <c r="D212" t="n">
         <v>0</v>
       </c>
+      <c r="E212" t="n">
+        <v>10420</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5138,6 +6158,9 @@
       <c r="D213" t="n">
         <v>0</v>
       </c>
+      <c r="E213" t="n">
+        <v>230000</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5152,6 +6175,9 @@
       <c r="D214" t="n">
         <v>0</v>
       </c>
+      <c r="E214" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5166,6 +6192,9 @@
       <c r="D215" t="n">
         <v>0</v>
       </c>
+      <c r="E215" t="n">
+        <v>193881</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5180,6 +6209,9 @@
       <c r="D216" t="n">
         <v>0</v>
       </c>
+      <c r="E216" t="n">
+        <v>147405</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5194,6 +6226,9 @@
       <c r="D217" t="n">
         <v>0</v>
       </c>
+      <c r="E217" t="n">
+        <v>82021</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5208,6 +6243,9 @@
       <c r="D218" t="n">
         <v>0</v>
       </c>
+      <c r="E218" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5222,6 +6260,9 @@
       <c r="D219" t="n">
         <v>0</v>
       </c>
+      <c r="E219" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5236,6 +6277,9 @@
       <c r="D220" t="n">
         <v>0</v>
       </c>
+      <c r="E220" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5250,6 +6294,9 @@
       <c r="D221" t="n">
         <v>0</v>
       </c>
+      <c r="E221" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5264,6 +6311,9 @@
       <c r="D222" t="n">
         <v>0</v>
       </c>
+      <c r="E222" t="n">
+        <v>144900</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -5278,6 +6328,9 @@
       <c r="D223" t="n">
         <v>0</v>
       </c>
+      <c r="E223" t="n">
+        <v>283140</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -5292,6 +6345,9 @@
       <c r="D224" t="n">
         <v>1</v>
       </c>
+      <c r="E224" t="n">
+        <v>25750</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -5306,6 +6362,9 @@
       <c r="D225" t="n">
         <v>0</v>
       </c>
+      <c r="E225" t="n">
+        <v>128610</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -5320,6 +6379,9 @@
       <c r="D226" t="n">
         <v>0</v>
       </c>
+      <c r="E226" t="n">
+        <v>45000</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -5334,6 +6396,9 @@
       <c r="D227" t="n">
         <v>0</v>
       </c>
+      <c r="E227" t="n">
+        <v>77440</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -5348,6 +6413,9 @@
       <c r="D228" t="n">
         <v>0</v>
       </c>
+      <c r="E228" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -5362,6 +6430,9 @@
       <c r="D229" t="n">
         <v>0</v>
       </c>
+      <c r="E229" t="n">
+        <v>639000</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -5376,6 +6447,9 @@
       <c r="D230" t="n">
         <v>0</v>
       </c>
+      <c r="E230" t="n">
+        <v>50500</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -5390,6 +6464,9 @@
       <c r="D231" t="n">
         <v>0</v>
       </c>
+      <c r="E231" t="n">
+        <v>80313</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -5404,6 +6481,9 @@
       <c r="D232" t="n">
         <v>0</v>
       </c>
+      <c r="E232" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -5418,6 +6498,9 @@
       <c r="D233" t="n">
         <v>0</v>
       </c>
+      <c r="E233" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -5432,6 +6515,9 @@
       <c r="D234" t="n">
         <v>0</v>
       </c>
+      <c r="E234" t="n">
+        <v>12500</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -5446,6 +6532,9 @@
       <c r="D235" t="n">
         <v>0</v>
       </c>
+      <c r="E235" t="n">
+        <v>24000</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -5460,6 +6549,9 @@
       <c r="D236" t="n">
         <v>0</v>
       </c>
+      <c r="E236" t="n">
+        <v>219300</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -5474,6 +6566,9 @@
       <c r="D237" t="n">
         <v>0</v>
       </c>
+      <c r="E237" t="n">
+        <v>48000</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -5488,6 +6583,9 @@
       <c r="D238" t="n">
         <v>0</v>
       </c>
+      <c r="E238" t="n">
+        <v>237600</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -5502,6 +6600,9 @@
       <c r="D239" t="n">
         <v>0</v>
       </c>
+      <c r="E239" t="n">
+        <v>44100</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -5516,6 +6617,9 @@
       <c r="D240" t="n">
         <v>0</v>
       </c>
+      <c r="E240" t="n">
+        <v>254400</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -5530,6 +6634,9 @@
       <c r="D241" t="n">
         <v>0</v>
       </c>
+      <c r="E241" t="n">
+        <v>165000</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -5544,6 +6651,9 @@
       <c r="D242" t="n">
         <v>0</v>
       </c>
+      <c r="E242" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -5558,6 +6668,9 @@
       <c r="D243" t="n">
         <v>0</v>
       </c>
+      <c r="E243" t="n">
+        <v>60000000</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -5572,6 +6685,9 @@
       <c r="D244" t="n">
         <v>0</v>
       </c>
+      <c r="E244" t="n">
+        <v>375000</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -5586,6 +6702,9 @@
       <c r="D245" t="n">
         <v>0</v>
       </c>
+      <c r="E245" t="n">
+        <v>36900</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -5600,6 +6719,9 @@
       <c r="D246" t="n">
         <v>0</v>
       </c>
+      <c r="E246" t="n">
+        <v>35000</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -5614,6 +6736,9 @@
       <c r="D247" t="n">
         <v>0</v>
       </c>
+      <c r="E247" t="n">
+        <v>19669</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -5628,6 +6753,9 @@
       <c r="D248" t="n">
         <v>0</v>
       </c>
+      <c r="E248" t="n">
+        <v>105000</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -5642,6 +6770,9 @@
       <c r="D249" t="n">
         <v>0</v>
       </c>
+      <c r="E249" t="n">
+        <v>105753</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -5656,6 +6787,9 @@
       <c r="D250" t="n">
         <v>0</v>
       </c>
+      <c r="E250" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -5670,6 +6804,9 @@
       <c r="D251" t="n">
         <v>0</v>
       </c>
+      <c r="E251" t="n">
+        <v>25661</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -5684,6 +6821,9 @@
       <c r="D252" t="n">
         <v>0</v>
       </c>
+      <c r="E252" t="n">
+        <v>376000</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -5698,6 +6838,9 @@
       <c r="D253" t="n">
         <v>0</v>
       </c>
+      <c r="E253" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -5712,6 +6855,9 @@
       <c r="D254" t="n">
         <v>0</v>
       </c>
+      <c r="E254" t="n">
+        <v>50500</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -5726,6 +6872,9 @@
       <c r="D255" t="n">
         <v>0</v>
       </c>
+      <c r="E255" t="n">
+        <v>17410</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -5740,6 +6889,9 @@
       <c r="D256" t="n">
         <v>0</v>
       </c>
+      <c r="E256" t="n">
+        <v>1800505</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -5754,6 +6906,9 @@
       <c r="D257" t="n">
         <v>0</v>
       </c>
+      <c r="E257" t="n">
+        <v>45360</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -5768,6 +6923,9 @@
       <c r="D258" t="n">
         <v>0</v>
       </c>
+      <c r="E258" t="n">
+        <v>76800</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -5782,6 +6940,9 @@
       <c r="D259" t="n">
         <v>0</v>
       </c>
+      <c r="E259" t="n">
+        <v>25011</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -5796,6 +6957,9 @@
       <c r="D260" t="n">
         <v>0</v>
       </c>
+      <c r="E260" t="n">
+        <v>104140</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -5810,6 +6974,9 @@
       <c r="D261" t="n">
         <v>0</v>
       </c>
+      <c r="E261" t="n">
+        <v>28500</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -5824,6 +6991,9 @@
       <c r="D262" t="n">
         <v>0</v>
       </c>
+      <c r="E262" t="n">
+        <v>282420</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -5838,6 +7008,9 @@
       <c r="D263" t="n">
         <v>0</v>
       </c>
+      <c r="E263" t="n">
+        <v>34500</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -5852,6 +7025,9 @@
       <c r="D264" t="n">
         <v>0</v>
       </c>
+      <c r="E264" t="n">
+        <v>12000008</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -5866,6 +7042,9 @@
       <c r="D265" t="n">
         <v>0</v>
       </c>
+      <c r="E265" t="n">
+        <v>21600</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -5880,6 +7059,9 @@
       <c r="D266" t="n">
         <v>0</v>
       </c>
+      <c r="E266" t="n">
+        <v>45000</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -5894,6 +7076,9 @@
       <c r="D267" t="n">
         <v>0</v>
       </c>
+      <c r="E267" t="n">
+        <v>37800</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -5908,6 +7093,9 @@
       <c r="D268" t="n">
         <v>0</v>
       </c>
+      <c r="E268" t="n">
+        <v>61500</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -5922,6 +7110,9 @@
       <c r="D269" t="n">
         <v>0</v>
       </c>
+      <c r="E269" t="n">
+        <v>15600</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -5936,6 +7127,9 @@
       <c r="D270" t="n">
         <v>0</v>
       </c>
+      <c r="E270" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -5950,6 +7144,9 @@
       <c r="D271" t="n">
         <v>0</v>
       </c>
+      <c r="E271" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -5964,6 +7161,9 @@
       <c r="D272" t="n">
         <v>0</v>
       </c>
+      <c r="E272" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -5978,6 +7178,9 @@
       <c r="D273" t="n">
         <v>0</v>
       </c>
+      <c r="E273" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -5992,6 +7195,9 @@
       <c r="D274" t="n">
         <v>0</v>
       </c>
+      <c r="E274" t="n">
+        <v>50014</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -6006,6 +7212,9 @@
       <c r="D275" t="n">
         <v>0</v>
       </c>
+      <c r="E275" t="n">
+        <v>12001</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -6020,6 +7229,9 @@
       <c r="D276" t="n">
         <v>0</v>
       </c>
+      <c r="E276" t="n">
+        <v>450000</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -6034,6 +7246,9 @@
       <c r="D277" t="n">
         <v>0</v>
       </c>
+      <c r="E277" t="n">
+        <v>70000</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -6048,6 +7263,9 @@
       <c r="D278" t="n">
         <v>0</v>
       </c>
+      <c r="E278" t="n">
+        <v>225000</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -6062,6 +7280,9 @@
       <c r="D279" t="n">
         <v>0</v>
       </c>
+      <c r="E279" t="n">
+        <v>36000</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -6076,6 +7297,9 @@
       <c r="D280" t="n">
         <v>0</v>
       </c>
+      <c r="E280" t="n">
+        <v>1381000</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -6090,6 +7314,9 @@
       <c r="D281" t="n">
         <v>0</v>
       </c>
+      <c r="E281" t="n">
+        <v>1519000</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -6104,6 +7331,9 @@
       <c r="D282" t="n">
         <v>0</v>
       </c>
+      <c r="E282" t="n">
+        <v>11400</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -6118,6 +7348,9 @@
       <c r="D283" t="n">
         <v>0</v>
       </c>
+      <c r="E283" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -6132,6 +7365,9 @@
       <c r="D284" t="n">
         <v>0</v>
       </c>
+      <c r="E284" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -6146,6 +7382,9 @@
       <c r="D285" t="n">
         <v>0</v>
       </c>
+      <c r="E285" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -6160,6 +7399,9 @@
       <c r="D286" t="n">
         <v>0</v>
       </c>
+      <c r="E286" t="n">
+        <v>168397</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -6174,6 +7416,9 @@
       <c r="D287" t="n">
         <v>0</v>
       </c>
+      <c r="E287" t="n">
+        <v>59540</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -6188,6 +7433,9 @@
       <c r="D288" t="n">
         <v>0</v>
       </c>
+      <c r="E288" t="n">
+        <v>13002</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -6202,6 +7450,9 @@
       <c r="D289" t="n">
         <v>0</v>
       </c>
+      <c r="E289" t="n">
+        <v>55495</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -6216,6 +7467,9 @@
       <c r="D290" t="n">
         <v>0</v>
       </c>
+      <c r="E290" t="n">
+        <v>52000</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -6230,6 +7484,9 @@
       <c r="D291" t="n">
         <v>0</v>
       </c>
+      <c r="E291" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -6244,6 +7501,9 @@
       <c r="D292" t="n">
         <v>0</v>
       </c>
+      <c r="E292" t="n">
+        <v>4500000</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -6258,6 +7518,9 @@
       <c r="D293" t="n">
         <v>0</v>
       </c>
+      <c r="E293" t="n">
+        <v>360000</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -6272,6 +7535,9 @@
       <c r="D294" t="n">
         <v>0</v>
       </c>
+      <c r="E294" t="n">
+        <v>11400</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -6286,6 +7552,9 @@
       <c r="D295" t="n">
         <v>0</v>
       </c>
+      <c r="E295" t="n">
+        <v>15861</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -6300,6 +7569,9 @@
       <c r="D296" t="n">
         <v>0</v>
       </c>
+      <c r="E296" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -6314,6 +7586,9 @@
       <c r="D297" t="n">
         <v>0</v>
       </c>
+      <c r="E297" t="n">
+        <v>23250</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -6328,6 +7603,9 @@
       <c r="D298" t="n">
         <v>0</v>
       </c>
+      <c r="E298" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -6342,6 +7620,9 @@
       <c r="D299" t="n">
         <v>0</v>
       </c>
+      <c r="E299" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -6356,6 +7637,9 @@
       <c r="D300" t="n">
         <v>0</v>
       </c>
+      <c r="E300" t="n">
+        <v>501110</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -6370,6 +7654,9 @@
       <c r="D301" t="n">
         <v>0</v>
       </c>
+      <c r="E301" t="n">
+        <v>11012</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -6384,6 +7671,9 @@
       <c r="D302" t="n">
         <v>0</v>
       </c>
+      <c r="E302" t="n">
+        <v>75000</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -6398,6 +7688,9 @@
       <c r="D303" t="n">
         <v>0</v>
       </c>
+      <c r="E303" t="n">
+        <v>10905</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -6412,6 +7705,9 @@
       <c r="D304" t="n">
         <v>0</v>
       </c>
+      <c r="E304" t="n">
+        <v>115000</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -6426,6 +7722,9 @@
       <c r="D305" t="n">
         <v>0</v>
       </c>
+      <c r="E305" t="n">
+        <v>112000</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -6440,6 +7739,9 @@
       <c r="D306" t="n">
         <v>0</v>
       </c>
+      <c r="E306" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -6454,6 +7756,9 @@
       <c r="D307" t="n">
         <v>0</v>
       </c>
+      <c r="E307" t="n">
+        <v>84609</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -6468,6 +7773,9 @@
       <c r="D308" t="n">
         <v>0</v>
       </c>
+      <c r="E308" t="n">
+        <v>56488</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -6482,6 +7790,9 @@
       <c r="D309" t="n">
         <v>0</v>
       </c>
+      <c r="E309" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -6496,6 +7807,9 @@
       <c r="D310" t="n">
         <v>0</v>
       </c>
+      <c r="E310" t="n">
+        <v>110000</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -6510,6 +7824,9 @@
       <c r="D311" t="n">
         <v>0</v>
       </c>
+      <c r="E311" t="n">
+        <v>4200000</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -6524,6 +7841,9 @@
       <c r="D312" t="n">
         <v>0</v>
       </c>
+      <c r="E312" t="n">
+        <v>41837</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -6538,6 +7858,9 @@
       <c r="D313" t="n">
         <v>0</v>
       </c>
+      <c r="E313" t="n">
+        <v>12003</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -6552,6 +7875,9 @@
       <c r="D314" t="n">
         <v>0</v>
       </c>
+      <c r="E314" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -6566,6 +7892,9 @@
       <c r="D315" t="n">
         <v>0</v>
       </c>
+      <c r="E315" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -6580,6 +7909,9 @@
       <c r="D316" t="n">
         <v>0</v>
       </c>
+      <c r="E316" t="n">
+        <v>74000</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -6594,6 +7926,9 @@
       <c r="D317" t="n">
         <v>0</v>
       </c>
+      <c r="E317" t="n">
+        <v>10000000</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -6608,6 +7943,9 @@
       <c r="D318" t="n">
         <v>0</v>
       </c>
+      <c r="E318" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -6622,6 +7960,9 @@
       <c r="D319" t="n">
         <v>0</v>
       </c>
+      <c r="E319" t="n">
+        <v>14534</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -6636,6 +7977,9 @@
       <c r="D320" t="n">
         <v>0</v>
       </c>
+      <c r="E320" t="n">
+        <v>23461</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -6650,6 +7994,9 @@
       <c r="D321" t="n">
         <v>0</v>
       </c>
+      <c r="E321" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -6664,6 +8011,9 @@
       <c r="D322" t="n">
         <v>0</v>
       </c>
+      <c r="E322" t="n">
+        <v>26460</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -6678,6 +8028,9 @@
       <c r="D323" t="n">
         <v>0</v>
       </c>
+      <c r="E323" t="n">
+        <v>90000</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -6692,6 +8045,9 @@
       <c r="D324" t="n">
         <v>0</v>
       </c>
+      <c r="E324" t="n">
+        <v>110000</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -6706,6 +8062,9 @@
       <c r="D325" t="n">
         <v>0</v>
       </c>
+      <c r="E325" t="n">
+        <v>18200</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -6720,6 +8079,9 @@
       <c r="D326" t="n">
         <v>0</v>
       </c>
+      <c r="E326" t="n">
+        <v>23776</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -6734,6 +8096,9 @@
       <c r="D327" t="n">
         <v>0</v>
       </c>
+      <c r="E327" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -6748,6 +8113,9 @@
       <c r="D328" t="n">
         <v>0</v>
       </c>
+      <c r="E328" t="n">
+        <v>126025</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -6762,6 +8130,9 @@
       <c r="D329" t="n">
         <v>0</v>
       </c>
+      <c r="E329" t="n">
+        <v>25400</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -6776,6 +8147,9 @@
       <c r="D330" t="n">
         <v>0</v>
       </c>
+      <c r="E330" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -6790,6 +8164,9 @@
       <c r="D331" t="n">
         <v>0</v>
       </c>
+      <c r="E331" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -6804,6 +8181,9 @@
       <c r="D332" t="n">
         <v>0</v>
       </c>
+      <c r="E332" t="n">
+        <v>228650</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -6818,6 +8198,9 @@
       <c r="D333" t="n">
         <v>0</v>
       </c>
+      <c r="E333" t="n">
+        <v>90590</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -6832,6 +8215,9 @@
       <c r="D334" t="n">
         <v>0</v>
       </c>
+      <c r="E334" t="n">
+        <v>75506</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -6846,6 +8232,9 @@
       <c r="D335" t="n">
         <v>0</v>
       </c>
+      <c r="E335" t="n">
+        <v>14000</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -6860,6 +8249,9 @@
       <c r="D336" t="n">
         <v>0</v>
       </c>
+      <c r="E336" t="n">
+        <v>455005</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -6874,6 +8266,9 @@
       <c r="D337" t="n">
         <v>0</v>
       </c>
+      <c r="E337" t="n">
+        <v>59800</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -6888,6 +8283,9 @@
       <c r="D338" t="n">
         <v>0</v>
       </c>
+      <c r="E338" t="n">
+        <v>14500000</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -6902,6 +8300,9 @@
       <c r="D339" t="n">
         <v>0</v>
       </c>
+      <c r="E339" t="n">
+        <v>1080000</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -6916,6 +8317,9 @@
       <c r="D340" t="n">
         <v>0</v>
       </c>
+      <c r="E340" t="n">
+        <v>286100</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -6930,6 +8334,9 @@
       <c r="D341" t="n">
         <v>0</v>
       </c>
+      <c r="E341" t="n">
+        <v>62900</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -6944,6 +8351,9 @@
       <c r="D342" t="n">
         <v>0</v>
       </c>
+      <c r="E342" t="n">
+        <v>11839</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -6958,6 +8368,9 @@
       <c r="D343" t="n">
         <v>0</v>
       </c>
+      <c r="E343" t="n">
+        <v>23717</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -6972,6 +8385,9 @@
       <c r="D344" t="n">
         <v>0</v>
       </c>
+      <c r="E344" t="n">
+        <v>10500</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -6986,6 +8402,9 @@
       <c r="D345" t="n">
         <v>0</v>
       </c>
+      <c r="E345" t="n">
+        <v>1760000</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -7000,6 +8419,9 @@
       <c r="D346" t="n">
         <v>0</v>
       </c>
+      <c r="E346" t="n">
+        <v>79095</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -7014,6 +8436,9 @@
       <c r="D347" t="n">
         <v>0</v>
       </c>
+      <c r="E347" t="n">
+        <v>1036166</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -7028,6 +8453,9 @@
       <c r="D348" t="n">
         <v>0</v>
       </c>
+      <c r="E348" t="n">
+        <v>14000</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -7042,6 +8470,9 @@
       <c r="D349" t="n">
         <v>0</v>
       </c>
+      <c r="E349" t="n">
+        <v>11028</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -7056,6 +8487,9 @@
       <c r="D350" t="n">
         <v>0</v>
       </c>
+      <c r="E350" t="n">
+        <v>78738</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -7070,6 +8504,9 @@
       <c r="D351" t="n">
         <v>0</v>
       </c>
+      <c r="E351" t="n">
+        <v>120000</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -7084,6 +8521,9 @@
       <c r="D352" t="n">
         <v>0</v>
       </c>
+      <c r="E352" t="n">
+        <v>43000</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -7098,6 +8538,9 @@
       <c r="D353" t="n">
         <v>0</v>
       </c>
+      <c r="E353" t="n">
+        <v>27500</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -7112,6 +8555,9 @@
       <c r="D354" t="n">
         <v>0</v>
       </c>
+      <c r="E354" t="n">
+        <v>14700</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -7126,6 +8572,9 @@
       <c r="D355" t="n">
         <v>0</v>
       </c>
+      <c r="E355" t="n">
+        <v>16083</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -7140,6 +8589,9 @@
       <c r="D356" t="n">
         <v>0</v>
       </c>
+      <c r="E356" t="n">
+        <v>26000</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -7154,6 +8606,9 @@
       <c r="D357" t="n">
         <v>0</v>
       </c>
+      <c r="E357" t="n">
+        <v>31800</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -7168,6 +8623,9 @@
       <c r="D358" t="n">
         <v>0</v>
       </c>
+      <c r="E358" t="n">
+        <v>21521</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -7182,6 +8640,9 @@
       <c r="D359" t="n">
         <v>0</v>
       </c>
+      <c r="E359" t="n">
+        <v>16003</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -7196,6 +8657,9 @@
       <c r="D360" t="n">
         <v>0</v>
       </c>
+      <c r="E360" t="n">
+        <v>31500</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -7210,6 +8674,9 @@
       <c r="D361" t="n">
         <v>0</v>
       </c>
+      <c r="E361" t="n">
+        <v>142290</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -7224,6 +8691,9 @@
       <c r="D362" t="n">
         <v>0</v>
       </c>
+      <c r="E362" t="n">
+        <v>44000</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -7238,6 +8708,7 @@
       <c r="D363" t="n">
         <v>0</v>
       </c>
+      <c r="E363"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -7252,6 +8723,9 @@
       <c r="D364" t="n">
         <v>0</v>
       </c>
+      <c r="E364" t="n">
+        <v>17201</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -7266,6 +8740,9 @@
       <c r="D365" t="n">
         <v>0</v>
       </c>
+      <c r="E365" t="n">
+        <v>24304</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -7280,6 +8757,9 @@
       <c r="D366" t="n">
         <v>0</v>
       </c>
+      <c r="E366" t="n">
+        <v>67500</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -7294,6 +8774,9 @@
       <c r="D367" t="n">
         <v>0</v>
       </c>
+      <c r="E367" t="n">
+        <v>11418</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -7308,6 +8791,9 @@
       <c r="D368" t="n">
         <v>0</v>
       </c>
+      <c r="E368" t="n">
+        <v>167250</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -7322,6 +8808,9 @@
       <c r="D369" t="n">
         <v>0</v>
       </c>
+      <c r="E369" t="n">
+        <v>40002</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -7336,6 +8825,9 @@
       <c r="D370" t="n">
         <v>0</v>
       </c>
+      <c r="E370" t="n">
+        <v>44000</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -7350,6 +8842,9 @@
       <c r="D371" t="n">
         <v>0</v>
       </c>
+      <c r="E371" t="n">
+        <v>12500</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -7364,6 +8859,9 @@
       <c r="D372" t="n">
         <v>0</v>
       </c>
+      <c r="E372" t="n">
+        <v>17500</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -7378,6 +8876,9 @@
       <c r="D373" t="n">
         <v>0</v>
       </c>
+      <c r="E373" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -7392,6 +8893,9 @@
       <c r="D374" t="n">
         <v>0</v>
       </c>
+      <c r="E374" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -7406,6 +8910,9 @@
       <c r="D375" t="n">
         <v>0</v>
       </c>
+      <c r="E375" t="n">
+        <v>16350</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -7419,6 +8926,9 @@
       </c>
       <c r="D376" t="n">
         <v>0</v>
+      </c>
+      <c r="E376" t="n">
+        <v>196745</v>
       </c>
     </row>
   </sheetData>
@@ -7448,6 +8958,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -7462,6 +8975,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>150060</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -7476,6 +8992,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>46000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -7490,6 +9009,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>640032</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -7504,6 +9026,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>9062000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7518,6 +9043,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>41357</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -7532,6 +9060,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -7546,6 +9077,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>2481</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -7560,6 +9094,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>8000000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -7574,6 +9111,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>458855</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7588,6 +9128,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>90000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -7602,6 +9145,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>825223</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -7616,6 +9162,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7630,6 +9179,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>1013000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7644,6 +9196,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>1240000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -7658,6 +9213,9 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>19624000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -7672,6 +9230,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>1350008</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -7686,6 +9247,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>5719000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -7700,6 +9264,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>1954571</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -7714,6 +9281,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>2460000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -7728,6 +9298,9 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -7742,6 +9315,9 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
+      <c r="E22" t="n">
+        <v>105000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -7756,6 +9332,9 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
+      <c r="E23" t="n">
+        <v>3150000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -7770,6 +9349,9 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
+      <c r="E24" t="n">
+        <v>29622000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -7784,6 +9366,9 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
+      <c r="E25" t="n">
+        <v>6531000</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -7798,6 +9383,9 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
+      <c r="E26" t="n">
+        <v>10000000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -7812,6 +9400,9 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
+      <c r="E27" t="n">
+        <v>5923350</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -7826,6 +9417,9 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
+      <c r="E28" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -7840,6 +9434,9 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
+      <c r="E29" t="n">
+        <v>240700</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -7854,6 +9451,9 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
+      <c r="E30" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -7868,6 +9468,9 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
+      <c r="E31" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -7882,6 +9485,9 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
+      <c r="E32" t="n">
+        <v>8000000</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -7896,6 +9502,9 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
+      <c r="E33" t="n">
+        <v>140000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -7910,6 +9519,9 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
+      <c r="E34" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -7924,6 +9536,9 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
+      <c r="E35" t="n">
+        <v>33000</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -7938,6 +9553,7 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
+      <c r="E36"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -7952,6 +9568,9 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
+      <c r="E37" t="n">
+        <v>77000000</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -7966,6 +9585,9 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
+      <c r="E38" t="n">
+        <v>274000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7980,6 +9602,9 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
+      <c r="E39" t="n">
+        <v>340000</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7994,6 +9619,9 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
+      <c r="E40" t="n">
+        <v>500000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -8008,6 +9636,9 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
+      <c r="E41" t="n">
+        <v>93006</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -8022,6 +9653,9 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
+      <c r="E42" t="n">
+        <v>42000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -8036,6 +9670,9 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
+      <c r="E43" t="n">
+        <v>900000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8050,6 +9687,7 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
+      <c r="E44"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8064,6 +9702,9 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
+      <c r="E45" t="n">
+        <v>48631</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8078,6 +9719,9 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
+      <c r="E46" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8092,6 +9736,9 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
+      <c r="E47" t="n">
+        <v>11000004</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8106,6 +9753,9 @@
       <c r="D48" t="n">
         <v>0</v>
       </c>
+      <c r="E48" t="n">
+        <v>72000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8120,6 +9770,9 @@
       <c r="D49" t="n">
         <v>0</v>
       </c>
+      <c r="E49" t="n">
+        <v>1000058</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -8134,6 +9787,9 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
+      <c r="E50" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -8148,6 +9804,9 @@
       <c r="D51" t="n">
         <v>0</v>
       </c>
+      <c r="E51" t="n">
+        <v>10000096</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -8162,6 +9821,9 @@
       <c r="D52" t="n">
         <v>0</v>
       </c>
+      <c r="E52" t="n">
+        <v>1197799</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -8176,6 +9838,9 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
+      <c r="E53" t="n">
+        <v>1881100</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -8190,6 +9855,9 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
+      <c r="E54" t="n">
+        <v>70190</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -8204,6 +9872,9 @@
       <c r="D55" t="n">
         <v>0</v>
       </c>
+      <c r="E55" t="n">
+        <v>170000</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -8218,6 +9889,9 @@
       <c r="D56" t="n">
         <v>0</v>
       </c>
+      <c r="E56" t="n">
+        <v>154000</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -8232,6 +9906,9 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
+      <c r="E57" t="n">
+        <v>41500</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -8246,6 +9923,9 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
+      <c r="E58" t="n">
+        <v>186000</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -8260,6 +9940,9 @@
       <c r="D59" t="n">
         <v>0</v>
       </c>
+      <c r="E59" t="n">
+        <v>230000</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -8274,6 +9957,9 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
+      <c r="E60" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -8288,6 +9974,9 @@
       <c r="D61" t="n">
         <v>0</v>
       </c>
+      <c r="E61" t="n">
+        <v>4033472</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -8302,6 +9991,9 @@
       <c r="D62" t="n">
         <v>0</v>
       </c>
+      <c r="E62" t="n">
+        <v>120000</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -8316,6 +10008,9 @@
       <c r="D63" t="n">
         <v>0</v>
       </c>
+      <c r="E63" t="n">
+        <v>22000150</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -8330,6 +10025,9 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
+      <c r="E64" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -8344,6 +10042,9 @@
       <c r="D65" t="n">
         <v>0</v>
       </c>
+      <c r="E65" t="n">
+        <v>25475</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -8358,6 +10059,9 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
+      <c r="E66" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -8372,6 +10076,9 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
+      <c r="E67" t="n">
+        <v>3649800</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -8386,6 +10093,9 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
+      <c r="E68" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -8400,6 +10110,9 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
+      <c r="E69" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -8414,6 +10127,9 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
+      <c r="E70" t="n">
+        <v>10060</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -8428,6 +10144,9 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
+      <c r="E71" t="n">
+        <v>50650</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -8442,6 +10161,9 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
+      <c r="E72" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -8456,6 +10178,9 @@
       <c r="D73" t="n">
         <v>0</v>
       </c>
+      <c r="E73" t="n">
+        <v>127000</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -8470,6 +10195,9 @@
       <c r="D74" t="n">
         <v>0</v>
       </c>
+      <c r="E74" t="n">
+        <v>87000</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -8484,6 +10212,9 @@
       <c r="D75" t="n">
         <v>0</v>
       </c>
+      <c r="E75" t="n">
+        <v>58500</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8498,6 +10229,9 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
+      <c r="E76" t="n">
+        <v>3790000</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8512,6 +10246,9 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
+      <c r="E77" t="n">
+        <v>232170</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8526,6 +10263,9 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
+      <c r="E78" t="n">
+        <v>6000007</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8540,6 +10280,9 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
+      <c r="E79" t="n">
+        <v>107500</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8554,6 +10297,9 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
+      <c r="E80" t="n">
+        <v>126000</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -8568,6 +10314,9 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
+      <c r="E81" t="n">
+        <v>13500</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -8582,6 +10331,9 @@
       <c r="D82" t="n">
         <v>0</v>
       </c>
+      <c r="E82" t="n">
+        <v>1398324</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -8596,6 +10348,9 @@
       <c r="D83" t="n">
         <v>0</v>
       </c>
+      <c r="E83" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -8610,6 +10365,9 @@
       <c r="D84" t="n">
         <v>0</v>
       </c>
+      <c r="E84" t="n">
+        <v>217000</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -8624,6 +10382,9 @@
       <c r="D85" t="n">
         <v>0</v>
       </c>
+      <c r="E85" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -8638,6 +10399,9 @@
       <c r="D86" t="n">
         <v>0</v>
       </c>
+      <c r="E86" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -8652,6 +10416,9 @@
       <c r="D87" t="n">
         <v>0</v>
       </c>
+      <c r="E87" t="n">
+        <v>21000</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -8666,6 +10433,9 @@
       <c r="D88" t="n">
         <v>0</v>
       </c>
+      <c r="E88" t="n">
+        <v>390150</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -8680,6 +10450,9 @@
       <c r="D89" t="n">
         <v>0</v>
       </c>
+      <c r="E89" t="n">
+        <v>8000000</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -8694,6 +10467,9 @@
       <c r="D90" t="n">
         <v>0</v>
       </c>
+      <c r="E90" t="n">
+        <v>189800</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -8708,6 +10484,9 @@
       <c r="D91" t="n">
         <v>0</v>
       </c>
+      <c r="E91" t="n">
+        <v>92701</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -8722,6 +10501,7 @@
       <c r="D92" t="n">
         <v>0</v>
       </c>
+      <c r="E92"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -8736,6 +10516,9 @@
       <c r="D93" t="n">
         <v>0</v>
       </c>
+      <c r="E93" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -8750,6 +10533,9 @@
       <c r="D94" t="n">
         <v>0</v>
       </c>
+      <c r="E94" t="n">
+        <v>105000</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -8764,6 +10550,9 @@
       <c r="D95" t="n">
         <v>0</v>
       </c>
+      <c r="E95" t="n">
+        <v>13864</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -8778,6 +10567,9 @@
       <c r="D96" t="n">
         <v>0</v>
       </c>
+      <c r="E96" t="n">
+        <v>506000</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -8792,6 +10584,9 @@
       <c r="D97" t="n">
         <v>0</v>
       </c>
+      <c r="E97" t="n">
+        <v>475000</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -8806,6 +10601,9 @@
       <c r="D98" t="n">
         <v>0</v>
       </c>
+      <c r="E98" t="n">
+        <v>51800</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -8820,6 +10618,9 @@
       <c r="D99" t="n">
         <v>0</v>
       </c>
+      <c r="E99" t="n">
+        <v>100090</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -8834,6 +10635,9 @@
       <c r="D100" t="n">
         <v>0</v>
       </c>
+      <c r="E100" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -8848,6 +10652,9 @@
       <c r="D101" t="n">
         <v>0</v>
       </c>
+      <c r="E101" t="n">
+        <v>400000</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -8862,6 +10669,9 @@
       <c r="D102" t="n">
         <v>0</v>
       </c>
+      <c r="E102" t="n">
+        <v>109257</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -8876,6 +10686,9 @@
       <c r="D103" t="n">
         <v>0</v>
       </c>
+      <c r="E103" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -8890,6 +10703,9 @@
       <c r="D104" t="n">
         <v>0</v>
       </c>
+      <c r="E104" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -8904,6 +10720,9 @@
       <c r="D105" t="n">
         <v>0</v>
       </c>
+      <c r="E105" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -8918,6 +10737,9 @@
       <c r="D106" t="n">
         <v>0</v>
       </c>
+      <c r="E106" t="n">
+        <v>9960099</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -8932,6 +10754,9 @@
       <c r="D107" t="n">
         <v>0</v>
       </c>
+      <c r="E107" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -8946,6 +10771,9 @@
       <c r="D108" t="n">
         <v>0</v>
       </c>
+      <c r="E108" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -8960,6 +10788,9 @@
       <c r="D109" t="n">
         <v>0</v>
       </c>
+      <c r="E109" t="n">
+        <v>136255</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -8974,6 +10805,9 @@
       <c r="D110" t="n">
         <v>0</v>
       </c>
+      <c r="E110" t="n">
+        <v>394000</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -8988,6 +10822,9 @@
       <c r="D111" t="n">
         <v>0</v>
       </c>
+      <c r="E111" t="n">
+        <v>75135</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -9002,6 +10839,9 @@
       <c r="D112" t="n">
         <v>0</v>
       </c>
+      <c r="E112" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -9016,6 +10856,9 @@
       <c r="D113" t="n">
         <v>0</v>
       </c>
+      <c r="E113" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -9030,6 +10873,9 @@
       <c r="D114" t="n">
         <v>0</v>
       </c>
+      <c r="E114" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -9044,6 +10890,9 @@
       <c r="D115" t="n">
         <v>0</v>
       </c>
+      <c r="E115" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -9058,6 +10907,9 @@
       <c r="D116" t="n">
         <v>0</v>
       </c>
+      <c r="E116" t="n">
+        <v>11037</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -9072,6 +10924,9 @@
       <c r="D117" t="n">
         <v>0</v>
       </c>
+      <c r="E117" t="n">
+        <v>79800</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -9086,6 +10941,9 @@
       <c r="D118" t="n">
         <v>0</v>
       </c>
+      <c r="E118" t="n">
+        <v>193000</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -9100,6 +10958,9 @@
       <c r="D119" t="n">
         <v>0</v>
       </c>
+      <c r="E119" t="n">
+        <v>56000</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -9114,6 +10975,9 @@
       <c r="D120" t="n">
         <v>0</v>
       </c>
+      <c r="E120" t="n">
+        <v>13800</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -9128,6 +10992,9 @@
       <c r="D121" t="n">
         <v>0</v>
       </c>
+      <c r="E121" t="n">
+        <v>110000</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -9142,6 +11009,9 @@
       <c r="D122" t="n">
         <v>0</v>
       </c>
+      <c r="E122" t="n">
+        <v>1580000</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -9156,6 +11026,9 @@
       <c r="D123" t="n">
         <v>0</v>
       </c>
+      <c r="E123" t="n">
+        <v>78300</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -9170,6 +11043,9 @@
       <c r="D124" t="n">
         <v>0</v>
       </c>
+      <c r="E124" t="n">
+        <v>15600</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -9184,6 +11060,9 @@
       <c r="D125" t="n">
         <v>0</v>
       </c>
+      <c r="E125" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -9198,6 +11077,7 @@
       <c r="D126" t="n">
         <v>0</v>
       </c>
+      <c r="E126"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -9212,6 +11092,9 @@
       <c r="D127" t="n">
         <v>0</v>
       </c>
+      <c r="E127" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -9226,6 +11109,9 @@
       <c r="D128" t="n">
         <v>0</v>
       </c>
+      <c r="E128" t="n">
+        <v>45846</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -9240,6 +11126,9 @@
       <c r="D129" t="n">
         <v>0</v>
       </c>
+      <c r="E129" t="n">
+        <v>46000</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -9254,6 +11143,9 @@
       <c r="D130" t="n">
         <v>0</v>
       </c>
+      <c r="E130" t="n">
+        <v>24900</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -9268,6 +11160,9 @@
       <c r="D131" t="n">
         <v>0</v>
       </c>
+      <c r="E131" t="n">
+        <v>18000</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -9282,6 +11177,9 @@
       <c r="D132" t="n">
         <v>0</v>
       </c>
+      <c r="E132" t="n">
+        <v>14400</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -9296,6 +11194,9 @@
       <c r="D133" t="n">
         <v>0</v>
       </c>
+      <c r="E133" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -9310,6 +11211,9 @@
       <c r="D134" t="n">
         <v>0</v>
       </c>
+      <c r="E134" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -9324,6 +11228,9 @@
       <c r="D135" t="n">
         <v>0</v>
       </c>
+      <c r="E135" t="n">
+        <v>10500</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -9338,6 +11245,9 @@
       <c r="D136" t="n">
         <v>0</v>
       </c>
+      <c r="E136" t="n">
+        <v>205500</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -9352,6 +11262,9 @@
       <c r="D137" t="n">
         <v>0</v>
       </c>
+      <c r="E137" t="n">
+        <v>36000</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -9366,6 +11279,7 @@
       <c r="D138" t="n">
         <v>0</v>
       </c>
+      <c r="E138"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -9380,6 +11294,9 @@
       <c r="D139" t="n">
         <v>0</v>
       </c>
+      <c r="E139" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -9394,6 +11311,9 @@
       <c r="D140" t="n">
         <v>0</v>
       </c>
+      <c r="E140" t="n">
+        <v>41133</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -9408,6 +11328,9 @@
       <c r="D141" t="n">
         <v>0</v>
       </c>
+      <c r="E141" t="n">
+        <v>174300</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -9422,6 +11345,9 @@
       <c r="D142" t="n">
         <v>0</v>
       </c>
+      <c r="E142" t="n">
+        <v>14400</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -9436,6 +11362,9 @@
       <c r="D143" t="n">
         <v>0</v>
       </c>
+      <c r="E143" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -9450,6 +11379,9 @@
       <c r="D144" t="n">
         <v>0</v>
       </c>
+      <c r="E144" t="n">
+        <v>13800</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -9464,6 +11396,9 @@
       <c r="D145" t="n">
         <v>0</v>
       </c>
+      <c r="E145" t="n">
+        <v>22273</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -9478,6 +11413,9 @@
       <c r="D146" t="n">
         <v>0</v>
       </c>
+      <c r="E146" t="n">
+        <v>2503700</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -9492,6 +11430,9 @@
       <c r="D147" t="n">
         <v>0</v>
       </c>
+      <c r="E147" t="n">
+        <v>7500</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -9506,6 +11447,9 @@
       <c r="D148" t="n">
         <v>0</v>
       </c>
+      <c r="E148" t="n">
+        <v>177000</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -9520,6 +11464,9 @@
       <c r="D149" t="n">
         <v>0</v>
       </c>
+      <c r="E149" t="n">
+        <v>45000</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -9534,6 +11481,9 @@
       <c r="D150" t="n">
         <v>0</v>
       </c>
+      <c r="E150" t="n">
+        <v>16200</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -9548,6 +11498,9 @@
       <c r="D151" t="n">
         <v>0</v>
       </c>
+      <c r="E151" t="n">
+        <v>18000</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -9562,6 +11515,9 @@
       <c r="D152" t="n">
         <v>0</v>
       </c>
+      <c r="E152" t="n">
+        <v>39600</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -9576,6 +11532,9 @@
       <c r="D153" t="n">
         <v>0</v>
       </c>
+      <c r="E153" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -9590,6 +11549,9 @@
       <c r="D154" t="n">
         <v>0</v>
       </c>
+      <c r="E154" t="n">
+        <v>1800000</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -9604,6 +11566,9 @@
       <c r="D155" t="n">
         <v>0</v>
       </c>
+      <c r="E155" t="n">
+        <v>45120</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -9618,6 +11583,9 @@
       <c r="D156" t="n">
         <v>0</v>
       </c>
+      <c r="E156" t="n">
+        <v>108000</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -9632,6 +11600,9 @@
       <c r="D157" t="n">
         <v>0</v>
       </c>
+      <c r="E157" t="n">
+        <v>83370</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -9646,6 +11617,9 @@
       <c r="D158" t="n">
         <v>0</v>
       </c>
+      <c r="E158" t="n">
+        <v>600000</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -9660,6 +11634,9 @@
       <c r="D159" t="n">
         <v>0</v>
       </c>
+      <c r="E159" t="n">
+        <v>15100</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -9674,6 +11651,9 @@
       <c r="D160" t="n">
         <v>0</v>
       </c>
+      <c r="E160" t="n">
+        <v>12235</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -9688,6 +11668,7 @@
       <c r="D161" t="n">
         <v>0</v>
       </c>
+      <c r="E161"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -9702,6 +11683,9 @@
       <c r="D162" t="n">
         <v>0</v>
       </c>
+      <c r="E162" t="n">
+        <v>49800</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -9716,6 +11700,9 @@
       <c r="D163" t="n">
         <v>0</v>
       </c>
+      <c r="E163" t="n">
+        <v>228000</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -9730,6 +11717,9 @@
       <c r="D164" t="n">
         <v>0</v>
       </c>
+      <c r="E164" t="n">
+        <v>509625</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -9744,6 +11734,9 @@
       <c r="D165" t="n">
         <v>0</v>
       </c>
+      <c r="E165" t="n">
+        <v>13666</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -9758,6 +11751,9 @@
       <c r="D166" t="n">
         <v>0</v>
       </c>
+      <c r="E166" t="n">
+        <v>80301</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -9772,6 +11768,9 @@
       <c r="D167" t="n">
         <v>0</v>
       </c>
+      <c r="E167" t="n">
+        <v>72000</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -9786,6 +11785,9 @@
       <c r="D168" t="n">
         <v>0</v>
       </c>
+      <c r="E168" t="n">
+        <v>5600</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -9800,6 +11802,9 @@
       <c r="D169" t="n">
         <v>0</v>
       </c>
+      <c r="E169" t="n">
+        <v>36003</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -9813,6 +11818,9 @@
       </c>
       <c r="D170" t="n">
         <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>

--- a/Bases/emdata_dummies_cds.xlsx
+++ b/Bases/emdata_dummies_cds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">t0</t>
   </si>
@@ -29,6 +29,42 @@
   </si>
   <si>
     <t xml:space="preserve">Total.Affected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SouthAfrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
   </si>
 </sst>
 </file>
@@ -384,6 +420,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -401,6 +440,9 @@
       <c r="E2" t="n">
         <v>30040</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -418,6 +460,9 @@
       <c r="E3" t="n">
         <v>14072</v>
       </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -435,6 +480,9 @@
       <c r="E4" t="n">
         <v>190100</v>
       </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -452,6 +500,9 @@
       <c r="E5" t="n">
         <v>32530</v>
       </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -469,6 +520,9 @@
       <c r="E6" t="n">
         <v>16828</v>
       </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -486,6 +540,9 @@
       <c r="E7" t="n">
         <v>20005</v>
       </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -503,6 +560,9 @@
       <c r="E8" t="n">
         <v>120600</v>
       </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -520,6 +580,9 @@
       <c r="E9" t="n">
         <v>22019</v>
       </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -537,6 +600,9 @@
       <c r="E10" t="n">
         <v>100012</v>
       </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -554,6 +620,9 @@
       <c r="E11" t="n">
         <v>83381</v>
       </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -571,6 +640,9 @@
       <c r="E12" t="n">
         <v>12833</v>
       </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -588,6 +660,9 @@
       <c r="E13" t="n">
         <v>532898</v>
       </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -605,6 +680,9 @@
       <c r="E14" t="n">
         <v>105313</v>
       </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -622,6 +700,9 @@
       <c r="E15" t="n">
         <v>26000</v>
       </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -639,6 +720,9 @@
       <c r="E16" t="n">
         <v>27645</v>
       </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -656,6 +740,9 @@
       <c r="E17" t="n">
         <v>18509</v>
       </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -673,6 +760,9 @@
       <c r="E18" t="n">
         <v>615500</v>
       </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -690,6 +780,9 @@
       <c r="E19" t="n">
         <v>68761</v>
       </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -707,6 +800,9 @@
       <c r="E20" t="n">
         <v>11000</v>
       </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -724,6 +820,9 @@
       <c r="E21" t="n">
         <v>3177923</v>
       </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -741,6 +840,9 @@
       <c r="E22" t="n">
         <v>35543</v>
       </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -758,6 +860,9 @@
       <c r="E23" t="n">
         <v>265106</v>
       </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -775,6 +880,9 @@
       <c r="E24" t="n">
         <v>45551</v>
       </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -792,6 +900,9 @@
       <c r="E25" t="n">
         <v>20000</v>
       </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -809,6 +920,9 @@
       <c r="E26" t="n">
         <v>12000</v>
       </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -826,6 +940,9 @@
       <c r="E27" t="n">
         <v>137660</v>
       </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -843,6 +960,9 @@
       <c r="E28" t="n">
         <v>658331</v>
       </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -860,6 +980,9 @@
       <c r="E29" t="n">
         <v>459567</v>
       </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -877,6 +1000,9 @@
       <c r="E30" t="n">
         <v>22154</v>
       </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -894,6 +1020,9 @@
       <c r="E31" t="n">
         <v>25155</v>
       </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -911,6 +1040,9 @@
       <c r="E32" t="n">
         <v>21800</v>
       </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -928,6 +1060,9 @@
       <c r="E33" t="n">
         <v>14201</v>
       </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -945,6 +1080,9 @@
       <c r="E34" t="n">
         <v>45976596</v>
       </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -962,6 +1100,9 @@
       <c r="E35" t="n">
         <v>351000</v>
       </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -979,6 +1120,9 @@
       <c r="E36" t="n">
         <v>13529</v>
       </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -996,6 +1140,9 @@
       <c r="E37" t="n">
         <v>1000589</v>
       </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1013,6 +1160,9 @@
       <c r="E38" t="n">
         <v>10077</v>
       </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1030,6 +1180,9 @@
       <c r="E39" t="n">
         <v>27169</v>
       </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1047,6 +1200,9 @@
       <c r="E40" t="n">
         <v>65336</v>
       </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1064,6 +1220,9 @@
       <c r="E41" t="n">
         <v>339792</v>
       </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1081,6 +1240,9 @@
       <c r="E42" t="n">
         <v>2501798</v>
       </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1098,6 +1260,9 @@
       <c r="E43" t="n">
         <v>10515</v>
       </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1115,6 +1280,9 @@
       <c r="E44" t="n">
         <v>50011</v>
       </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1132,6 +1300,9 @@
       <c r="E45" t="n">
         <v>2671556</v>
       </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1149,6 +1320,9 @@
       <c r="E46" t="n">
         <v>25232</v>
       </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1166,6 +1340,9 @@
       <c r="E47" t="n">
         <v>112000</v>
       </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1183,6 +1360,9 @@
       <c r="E48" t="n">
         <v>15060</v>
       </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1200,6 +1380,9 @@
       <c r="E49" t="n">
         <v>137140</v>
       </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1217,6 +1400,9 @@
       <c r="E50" t="n">
         <v>11864</v>
       </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1234,6 +1420,9 @@
       <c r="E51" t="n">
         <v>64501</v>
       </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1251,6 +1440,9 @@
       <c r="E52" t="n">
         <v>10121</v>
       </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1268,6 +1460,9 @@
       <c r="E53" t="n">
         <v>32938</v>
       </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1285,6 +1480,9 @@
       <c r="E54" t="n">
         <v>143000</v>
       </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1302,6 +1500,9 @@
       <c r="E55" t="n">
         <v>36641</v>
       </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1319,6 +1520,9 @@
       <c r="E56" t="n">
         <v>49011</v>
       </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1336,6 +1540,9 @@
       <c r="E57" t="n">
         <v>24297</v>
       </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1353,6 +1560,9 @@
       <c r="E58" t="n">
         <v>34234</v>
       </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1370,6 +1580,9 @@
       <c r="E59" t="n">
         <v>155052</v>
       </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1387,6 +1600,9 @@
       <c r="E60" t="n">
         <v>744821</v>
       </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1404,6 +1620,9 @@
       <c r="E61" t="n">
         <v>10015</v>
       </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1421,6 +1640,9 @@
       <c r="E62" t="n">
         <v>427740</v>
       </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1438,6 +1660,9 @@
       <c r="E63" t="n">
         <v>80555</v>
       </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1455,6 +1680,9 @@
       <c r="E64" t="n">
         <v>2198785</v>
       </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1472,6 +1700,9 @@
       <c r="E65" t="n">
         <v>55935</v>
       </c>
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1489,6 +1720,9 @@
       <c r="E66" t="n">
         <v>123887</v>
       </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1506,6 +1740,9 @@
       <c r="E67" t="n">
         <v>538050</v>
       </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1523,6 +1760,9 @@
       <c r="E68" t="n">
         <v>58300</v>
       </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1540,6 +1780,9 @@
       <c r="E69" t="n">
         <v>90500</v>
       </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1557,6 +1800,9 @@
       <c r="E70" t="n">
         <v>32002</v>
       </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1574,6 +1820,9 @@
       <c r="E71" t="n">
         <v>450000</v>
       </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1591,6 +1840,9 @@
       <c r="E72" t="n">
         <v>83158</v>
       </c>
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1608,6 +1860,9 @@
       <c r="E73" t="n">
         <v>513387</v>
       </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1625,6 +1880,9 @@
       <c r="E74" t="n">
         <v>75021</v>
       </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1642,6 +1900,9 @@
       <c r="E75" t="n">
         <v>225015</v>
       </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1659,6 +1920,9 @@
       <c r="E76" t="n">
         <v>184723</v>
       </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1676,6 +1940,9 @@
       <c r="E77" t="n">
         <v>27000</v>
       </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1693,6 +1960,9 @@
       <c r="E78" t="n">
         <v>1120513</v>
       </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1710,6 +1980,9 @@
       <c r="E79" t="n">
         <v>255324</v>
       </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1727,6 +2000,9 @@
       <c r="E80" t="n">
         <v>82355</v>
       </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1744,6 +2020,9 @@
       <c r="E81" t="n">
         <v>41236</v>
       </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -1761,6 +2040,9 @@
       <c r="E82" t="n">
         <v>207883</v>
       </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1778,6 +2060,9 @@
       <c r="E83" t="n">
         <v>681499</v>
       </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1795,6 +2080,9 @@
       <c r="E84" t="n">
         <v>12247</v>
       </c>
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -1812,6 +2100,9 @@
       <c r="E85" t="n">
         <v>11182</v>
       </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -1829,6 +2120,9 @@
       <c r="E86" t="n">
         <v>29832</v>
       </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1846,6 +2140,9 @@
       <c r="E87" t="n">
         <v>37200</v>
       </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -1863,6 +2160,9 @@
       <c r="E88" t="n">
         <v>86018</v>
       </c>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -1880,6 +2180,9 @@
       <c r="E89" t="n">
         <v>218325</v>
       </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -1897,6 +2200,9 @@
       <c r="E90" t="n">
         <v>1200250</v>
       </c>
+      <c r="F90" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -1914,6 +2220,9 @@
       <c r="E91" t="n">
         <v>256000</v>
       </c>
+      <c r="F91" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -1931,6 +2240,9 @@
       <c r="E92" t="n">
         <v>133349</v>
       </c>
+      <c r="F92" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -1948,6 +2260,9 @@
       <c r="E93" t="n">
         <v>23403</v>
       </c>
+      <c r="F93" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -1965,6 +2280,9 @@
       <c r="E94" t="n">
         <v>50000</v>
       </c>
+      <c r="F94" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1982,6 +2300,9 @@
       <c r="E95" t="n">
         <v>13811</v>
       </c>
+      <c r="F95" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -1999,6 +2320,9 @@
       <c r="E96" t="n">
         <v>12000</v>
       </c>
+      <c r="F96" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2016,6 +2340,9 @@
       <c r="E97" t="n">
         <v>102852</v>
       </c>
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2033,6 +2360,9 @@
       <c r="E98" t="n">
         <v>516927</v>
       </c>
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2050,6 +2380,9 @@
       <c r="E99" t="n">
         <v>18024</v>
       </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2067,6 +2400,9 @@
       <c r="E100" t="n">
         <v>2000000</v>
       </c>
+      <c r="F100" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2084,6 +2420,9 @@
       <c r="E101" t="n">
         <v>47778</v>
       </c>
+      <c r="F101" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2101,6 +2440,9 @@
       <c r="E102" t="n">
         <v>32772</v>
       </c>
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2118,6 +2460,9 @@
       <c r="E103" t="n">
         <v>244220</v>
       </c>
+      <c r="F103" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2135,6 +2480,9 @@
       <c r="E104" t="n">
         <v>11804</v>
       </c>
+      <c r="F104" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2152,6 +2500,9 @@
       <c r="E105" t="n">
         <v>30000</v>
       </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2169,6 +2520,9 @@
       <c r="E106" t="n">
         <v>15582</v>
       </c>
+      <c r="F106" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2186,6 +2540,9 @@
       <c r="E107" t="n">
         <v>247418</v>
       </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2203,6 +2560,9 @@
       <c r="E108" t="n">
         <v>70607</v>
       </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2220,6 +2580,9 @@
       <c r="E109" t="n">
         <v>24393</v>
       </c>
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2237,6 +2600,9 @@
       <c r="E110" t="n">
         <v>6034</v>
       </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2254,6 +2620,9 @@
       <c r="E111" t="n">
         <v>19736</v>
       </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2271,6 +2640,9 @@
       <c r="E112" t="n">
         <v>100653</v>
       </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2288,6 +2660,9 @@
       <c r="E113" t="n">
         <v>39028</v>
       </c>
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2305,6 +2680,9 @@
       <c r="E114" t="n">
         <v>21951</v>
       </c>
+      <c r="F114" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2322,6 +2700,9 @@
       <c r="E115" t="n">
         <v>24395</v>
       </c>
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2339,6 +2720,9 @@
       <c r="E116" t="n">
         <v>17912</v>
       </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2356,6 +2740,9 @@
       <c r="E117" t="n">
         <v>10992</v>
       </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2373,6 +2760,9 @@
       <c r="E118" t="n">
         <v>19210</v>
       </c>
+      <c r="F118" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2390,6 +2780,9 @@
       <c r="E119" t="n">
         <v>29030</v>
       </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2407,6 +2800,9 @@
       <c r="E120" t="n">
         <v>26499</v>
       </c>
+      <c r="F120" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2424,6 +2820,9 @@
       <c r="E121" t="n">
         <v>15390</v>
       </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2441,6 +2840,9 @@
       <c r="E122" t="n">
         <v>24903</v>
       </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2458,6 +2860,9 @@
       <c r="E123" t="n">
         <v>13541</v>
       </c>
+      <c r="F123" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2475,6 +2880,9 @@
       <c r="E124" t="n">
         <v>130400</v>
       </c>
+      <c r="F124" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2492,6 +2900,9 @@
       <c r="E125" t="n">
         <v>17886</v>
       </c>
+      <c r="F125" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2509,6 +2920,9 @@
       <c r="E126" t="n">
         <v>18005</v>
       </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2525,6 +2939,9 @@
       </c>
       <c r="E127" t="n">
         <v>2204645</v>
+      </c>
+      <c r="F127" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2557,6 +2974,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2574,6 +2994,9 @@
       <c r="E2" t="n">
         <v>13000</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2591,6 +3014,9 @@
       <c r="E3" t="n">
         <v>50000</v>
       </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2608,6 +3034,9 @@
       <c r="E4" t="n">
         <v>90000</v>
       </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2625,6 +3054,9 @@
       <c r="E5" t="n">
         <v>168500</v>
       </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2642,6 +3074,9 @@
       <c r="E6" t="n">
         <v>556073</v>
       </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2659,6 +3094,9 @@
       <c r="E7" t="n">
         <v>33652026</v>
       </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2676,6 +3114,9 @@
       <c r="E8" t="n">
         <v>15000</v>
       </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2693,6 +3134,9 @@
       <c r="E9" t="n">
         <v>8253000</v>
       </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2710,6 +3154,9 @@
       <c r="E10" t="n">
         <v>345386</v>
       </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2727,6 +3174,9 @@
       <c r="E11" t="n">
         <v>15000</v>
       </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2744,6 +3194,9 @@
       <c r="E12" t="n">
         <v>10000</v>
       </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2761,6 +3214,9 @@
       <c r="E13" t="n">
         <v>85729</v>
       </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2778,6 +3234,9 @@
       <c r="E14" t="n">
         <v>41530</v>
       </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2795,6 +3254,9 @@
       <c r="E15" t="n">
         <v>31000</v>
       </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2812,6 +3274,9 @@
       <c r="E16" t="n">
         <v>650000</v>
       </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2829,6 +3294,9 @@
       <c r="E17" t="n">
         <v>16700000</v>
       </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2846,6 +3314,9 @@
       <c r="E18" t="n">
         <v>11230230</v>
       </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2863,6 +3334,9 @@
       <c r="E19" t="n">
         <v>1270000</v>
       </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2880,6 +3354,9 @@
       <c r="E20" t="n">
         <v>14510</v>
       </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2897,6 +3374,9 @@
       <c r="E21" t="n">
         <v>188046</v>
       </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2914,6 +3394,9 @@
       <c r="E22" t="n">
         <v>14500</v>
       </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2931,6 +3414,9 @@
       <c r="E23" t="n">
         <v>10000</v>
       </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2948,6 +3434,9 @@
       <c r="E24" t="n">
         <v>474607</v>
       </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2965,6 +3454,9 @@
       <c r="E25" t="n">
         <v>4610000</v>
       </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2982,6 +3474,9 @@
       <c r="E26" t="n">
         <v>80000</v>
       </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2999,6 +3494,9 @@
       <c r="E27" t="n">
         <v>12211</v>
       </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3016,6 +3514,9 @@
       <c r="E28" t="n">
         <v>30000</v>
       </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3033,6 +3534,9 @@
       <c r="E29" t="n">
         <v>221465</v>
       </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3050,6 +3554,9 @@
       <c r="E30" t="n">
         <v>10000</v>
       </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3067,6 +3574,9 @@
       <c r="E31" t="n">
         <v>17539</v>
       </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3084,6 +3594,9 @@
       <c r="E32" t="n">
         <v>116000</v>
       </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3101,6 +3614,9 @@
       <c r="E33" t="n">
         <v>10461</v>
       </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3118,6 +3634,9 @@
       <c r="E34" t="n">
         <v>36900</v>
       </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3135,6 +3654,9 @@
       <c r="E35" t="n">
         <v>350035</v>
       </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3152,6 +3674,9 @@
       <c r="E36" t="n">
         <v>356000</v>
       </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3169,6 +3694,9 @@
       <c r="E37" t="n">
         <v>4600024</v>
       </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3186,6 +3714,9 @@
       <c r="E38" t="n">
         <v>12000</v>
       </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3203,6 +3734,9 @@
       <c r="E39" t="n">
         <v>1410000</v>
       </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3220,6 +3754,9 @@
       <c r="E40" t="n">
         <v>29231</v>
       </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3237,6 +3774,9 @@
       <c r="E41" t="n">
         <v>2375016</v>
       </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3254,6 +3794,9 @@
       <c r="E42" t="n">
         <v>18250</v>
       </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3271,6 +3814,9 @@
       <c r="E43" t="n">
         <v>270000</v>
       </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3288,6 +3834,9 @@
       <c r="E44" t="n">
         <v>4120000</v>
       </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3305,6 +3854,9 @@
       <c r="E45" t="n">
         <v>10009</v>
       </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3322,6 +3874,9 @@
       <c r="E46" t="n">
         <v>1400000</v>
       </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3339,6 +3894,9 @@
       <c r="E47" t="n">
         <v>95862</v>
       </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3356,6 +3914,9 @@
       <c r="E48" t="n">
         <v>20004</v>
       </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3373,6 +3934,9 @@
       <c r="E49" t="n">
         <v>63015</v>
       </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3390,6 +3954,9 @@
       <c r="E50" t="n">
         <v>100000</v>
       </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3407,6 +3974,9 @@
       <c r="E51" t="n">
         <v>618486</v>
       </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3424,6 +3994,9 @@
       <c r="E52" t="n">
         <v>200080</v>
       </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3441,6 +4014,9 @@
       <c r="E53" t="n">
         <v>137533</v>
       </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3458,6 +4034,9 @@
       <c r="E54" t="n">
         <v>47714</v>
       </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3475,6 +4054,9 @@
       <c r="E55" t="n">
         <v>217087</v>
       </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3492,6 +4074,9 @@
       <c r="E56" t="n">
         <v>11556</v>
       </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3509,6 +4094,9 @@
       <c r="E57" t="n">
         <v>1504317</v>
       </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3526,6 +4114,9 @@
       <c r="E58" t="n">
         <v>60000</v>
       </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3543,6 +4134,9 @@
       <c r="E59" t="n">
         <v>2300050</v>
       </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3560,6 +4154,9 @@
       <c r="E60" t="n">
         <v>250000</v>
       </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3577,6 +4174,9 @@
       <c r="E61" t="n">
         <v>105004000</v>
       </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3594,6 +4194,9 @@
       <c r="E62" t="n">
         <v>350000</v>
       </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3611,6 +4214,9 @@
       <c r="E63" t="n">
         <v>112742</v>
       </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3628,6 +4234,9 @@
       <c r="E64" t="n">
         <v>386000</v>
       </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3645,6 +4254,9 @@
       <c r="E65" t="n">
         <v>38000</v>
       </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3662,6 +4274,9 @@
       <c r="E66" t="n">
         <v>30000</v>
       </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3679,6 +4294,9 @@
       <c r="E67" t="n">
         <v>2430000</v>
       </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3696,6 +4314,9 @@
       <c r="E68" t="n">
         <v>213000</v>
       </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3713,6 +4334,9 @@
       <c r="E69" t="n">
         <v>17500</v>
       </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3730,6 +4354,9 @@
       <c r="E70" t="n">
         <v>55000</v>
       </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3747,6 +4374,9 @@
       <c r="E71" t="n">
         <v>1162135</v>
       </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3764,6 +4394,9 @@
       <c r="E72" t="n">
         <v>1600000</v>
       </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3781,6 +4414,9 @@
       <c r="E73" t="n">
         <v>29000</v>
       </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3798,6 +4434,9 @@
       <c r="E74" t="n">
         <v>269515</v>
       </c>
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3815,6 +4454,9 @@
       <c r="E75" t="n">
         <v>49506</v>
       </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3832,6 +4474,9 @@
       <c r="E76" t="n">
         <v>40000</v>
       </c>
+      <c r="F76" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3849,6 +4494,9 @@
       <c r="E77" t="n">
         <v>89761</v>
       </c>
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3866,6 +4514,9 @@
       <c r="E78" t="n">
         <v>12870</v>
       </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3883,6 +4534,9 @@
       <c r="E79" t="n">
         <v>450012</v>
       </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3900,6 +4554,9 @@
       <c r="E80" t="n">
         <v>12000</v>
       </c>
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3917,6 +4574,9 @@
       <c r="E81" t="n">
         <v>60000</v>
       </c>
+      <c r="F81" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3934,6 +4594,9 @@
       <c r="E82" t="n">
         <v>190000</v>
       </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3951,6 +4614,9 @@
       <c r="E83" t="n">
         <v>34514</v>
       </c>
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3968,6 +4634,9 @@
       <c r="E84" t="n">
         <v>780000</v>
       </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3985,6 +4654,9 @@
       <c r="E85" t="n">
         <v>40000</v>
       </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4002,6 +4674,9 @@
       <c r="E86" t="n">
         <v>538166</v>
       </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4019,6 +4694,9 @@
       <c r="E87" t="n">
         <v>1600000</v>
       </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4036,6 +4714,9 @@
       <c r="E88" t="n">
         <v>20000</v>
       </c>
+      <c r="F88" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4053,6 +4734,9 @@
       <c r="E89" t="n">
         <v>3000000</v>
       </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4070,6 +4754,9 @@
       <c r="E90" t="n">
         <v>810000</v>
       </c>
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4087,6 +4774,9 @@
       <c r="E91" t="n">
         <v>104755</v>
       </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4104,6 +4794,9 @@
       <c r="E92" t="n">
         <v>118000</v>
       </c>
+      <c r="F92" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4121,6 +4814,9 @@
       <c r="E93" t="n">
         <v>1200091</v>
       </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4138,6 +4834,9 @@
       <c r="E94" t="n">
         <v>50000</v>
       </c>
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4155,6 +4854,9 @@
       <c r="E95" t="n">
         <v>411000</v>
       </c>
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4172,6 +4874,9 @@
       <c r="E96" t="n">
         <v>84420</v>
       </c>
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4189,6 +4894,9 @@
       <c r="E97" t="n">
         <v>1500015</v>
       </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4206,6 +4914,9 @@
       <c r="E98" t="n">
         <v>15000</v>
       </c>
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4223,6 +4934,9 @@
       <c r="E99" t="n">
         <v>12000</v>
       </c>
+      <c r="F99" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4240,6 +4954,9 @@
       <c r="E100" t="n">
         <v>31250</v>
       </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4257,6 +4974,9 @@
       <c r="E101" t="n">
         <v>5630000</v>
       </c>
+      <c r="F101" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4274,6 +4994,9 @@
       <c r="E102" t="n">
         <v>1150900</v>
       </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4291,6 +5014,9 @@
       <c r="E103" t="n">
         <v>106000</v>
       </c>
+      <c r="F103" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4308,6 +5034,9 @@
       <c r="E104" t="n">
         <v>18000</v>
       </c>
+      <c r="F104" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4325,6 +5054,9 @@
       <c r="E105" t="n">
         <v>39372000</v>
       </c>
+      <c r="F105" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4342,6 +5074,9 @@
       <c r="E106" t="n">
         <v>20000</v>
       </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4359,6 +5094,9 @@
       <c r="E107" t="n">
         <v>10004</v>
       </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4376,6 +5114,9 @@
       <c r="E108" t="n">
         <v>118000</v>
       </c>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4393,6 +5134,9 @@
       <c r="E109" t="n">
         <v>35020</v>
       </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4410,6 +5154,9 @@
       <c r="E110" t="n">
         <v>18000</v>
       </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4427,6 +5174,9 @@
       <c r="E111" t="n">
         <v>10000</v>
       </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4444,6 +5194,9 @@
       <c r="E112" t="n">
         <v>13014</v>
       </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4461,6 +5214,9 @@
       <c r="E113" t="n">
         <v>107670</v>
       </c>
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4478,6 +5234,9 @@
       <c r="E114" t="n">
         <v>680000</v>
       </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4495,6 +5254,9 @@
       <c r="E115" t="n">
         <v>10000</v>
       </c>
+      <c r="F115" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4512,6 +5274,9 @@
       <c r="E116" t="n">
         <v>28500</v>
       </c>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4529,6 +5294,9 @@
       <c r="E117" t="n">
         <v>20000</v>
       </c>
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4546,6 +5314,9 @@
       <c r="E118" t="n">
         <v>80000</v>
       </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4563,6 +5334,9 @@
       <c r="E119" t="n">
         <v>74938</v>
       </c>
+      <c r="F119" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4580,6 +5354,9 @@
       <c r="E120" t="n">
         <v>2791999</v>
       </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4597,6 +5374,9 @@
       <c r="E121" t="n">
         <v>134000000</v>
       </c>
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4614,6 +5394,9 @@
       <c r="E122" t="n">
         <v>2100000</v>
       </c>
+      <c r="F122" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4631,6 +5414,9 @@
       <c r="E123" t="n">
         <v>157000</v>
       </c>
+      <c r="F123" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4648,6 +5434,9 @@
       <c r="E124" t="n">
         <v>15007</v>
       </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4665,6 +5454,9 @@
       <c r="E125" t="n">
         <v>47200</v>
       </c>
+      <c r="F125" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4682,6 +5474,9 @@
       <c r="E126" t="n">
         <v>64136</v>
       </c>
+      <c r="F126" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4699,6 +5494,9 @@
       <c r="E127" t="n">
         <v>1000000</v>
       </c>
+      <c r="F127" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4716,6 +5514,9 @@
       <c r="E128" t="n">
         <v>12428</v>
       </c>
+      <c r="F128" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4733,6 +5534,9 @@
       <c r="E129" t="n">
         <v>130000</v>
       </c>
+      <c r="F129" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4750,6 +5554,9 @@
       <c r="E130" t="n">
         <v>200321</v>
       </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4767,6 +5574,9 @@
       <c r="E131" t="n">
         <v>45000</v>
       </c>
+      <c r="F131" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4784,6 +5594,9 @@
       <c r="E132" t="n">
         <v>12000</v>
       </c>
+      <c r="F132" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4801,6 +5614,9 @@
       <c r="E133" t="n">
         <v>20000</v>
       </c>
+      <c r="F133" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4818,6 +5634,9 @@
       <c r="E134" t="n">
         <v>31000</v>
       </c>
+      <c r="F134" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4835,6 +5654,9 @@
       <c r="E135" t="n">
         <v>31600</v>
       </c>
+      <c r="F135" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4852,6 +5674,9 @@
       <c r="E136" t="n">
         <v>13000</v>
       </c>
+      <c r="F136" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4869,6 +5694,9 @@
       <c r="E137" t="n">
         <v>67900000</v>
       </c>
+      <c r="F137" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4886,6 +5714,9 @@
       <c r="E138" t="n">
         <v>1600000</v>
       </c>
+      <c r="F138" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4903,6 +5734,9 @@
       <c r="E139" t="n">
         <v>78000</v>
       </c>
+      <c r="F139" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4920,6 +5754,9 @@
       <c r="E140" t="n">
         <v>190000</v>
       </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4937,6 +5774,9 @@
       <c r="E141" t="n">
         <v>29000</v>
       </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4954,6 +5794,9 @@
       <c r="E142" t="n">
         <v>3800000</v>
       </c>
+      <c r="F142" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4971,6 +5814,9 @@
       <c r="E143" t="n">
         <v>40000</v>
       </c>
+      <c r="F143" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4988,6 +5834,9 @@
       <c r="E144" t="n">
         <v>20000000</v>
       </c>
+      <c r="F144" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5005,6 +5854,9 @@
       <c r="E145" t="n">
         <v>498924</v>
       </c>
+      <c r="F145" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5022,6 +5874,9 @@
       <c r="E146" t="n">
         <v>250000</v>
       </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5039,6 +5894,9 @@
       <c r="E147" t="n">
         <v>50029</v>
       </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5056,6 +5914,9 @@
       <c r="E148" t="n">
         <v>89000</v>
       </c>
+      <c r="F148" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5073,6 +5934,9 @@
       <c r="E149" t="n">
         <v>56000</v>
       </c>
+      <c r="F149" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5090,6 +5954,9 @@
       <c r="E150" t="n">
         <v>13119000</v>
       </c>
+      <c r="F150" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5107,6 +5974,9 @@
       <c r="E151" t="n">
         <v>210000</v>
       </c>
+      <c r="F151" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5124,6 +5994,9 @@
       <c r="E152" t="n">
         <v>185000</v>
       </c>
+      <c r="F152" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5141,6 +6014,9 @@
       <c r="E153" t="n">
         <v>125000</v>
       </c>
+      <c r="F153" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5158,6 +6034,9 @@
       <c r="E154" t="n">
         <v>17440000</v>
       </c>
+      <c r="F154" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5175,6 +6054,9 @@
       <c r="E155" t="n">
         <v>140000</v>
       </c>
+      <c r="F155" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5192,6 +6074,9 @@
       <c r="E156" t="n">
         <v>220000</v>
       </c>
+      <c r="F156" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5209,6 +6094,9 @@
       <c r="E157" t="n">
         <v>1000000</v>
       </c>
+      <c r="F157" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5226,6 +6114,9 @@
       <c r="E158" t="n">
         <v>500000</v>
       </c>
+      <c r="F158" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5243,6 +6134,9 @@
       <c r="E159" t="n">
         <v>210000</v>
       </c>
+      <c r="F159" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5260,6 +6154,9 @@
       <c r="E160" t="n">
         <v>17518</v>
       </c>
+      <c r="F160" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5277,6 +6174,9 @@
       <c r="E161" t="n">
         <v>125000</v>
       </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5294,6 +6194,9 @@
       <c r="E162" t="n">
         <v>15210</v>
       </c>
+      <c r="F162" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5311,6 +6214,9 @@
       <c r="E163" t="n">
         <v>10500</v>
       </c>
+      <c r="F163" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5328,6 +6234,9 @@
       <c r="E164" t="n">
         <v>200000</v>
       </c>
+      <c r="F164" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5345,6 +6254,9 @@
       <c r="E165" t="n">
         <v>180766</v>
       </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5362,6 +6274,9 @@
       <c r="E166" t="n">
         <v>248846</v>
       </c>
+      <c r="F166" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5379,6 +6294,9 @@
       <c r="E167" t="n">
         <v>58040</v>
       </c>
+      <c r="F167" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5396,6 +6314,9 @@
       <c r="E168" t="n">
         <v>13860</v>
       </c>
+      <c r="F168" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5413,6 +6334,9 @@
       <c r="E169" t="n">
         <v>115000</v>
       </c>
+      <c r="F169" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5430,6 +6354,9 @@
       <c r="E170" t="n">
         <v>255000</v>
       </c>
+      <c r="F170" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -5447,6 +6374,9 @@
       <c r="E171" t="n">
         <v>300000</v>
       </c>
+      <c r="F171" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -5464,6 +6394,9 @@
       <c r="E172" t="n">
         <v>100000</v>
       </c>
+      <c r="F172" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -5481,6 +6414,9 @@
       <c r="E173" t="n">
         <v>200000</v>
       </c>
+      <c r="F173" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -5498,6 +6434,9 @@
       <c r="E174" t="n">
         <v>10000</v>
       </c>
+      <c r="F174" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -5515,6 +6454,9 @@
       <c r="E175" t="n">
         <v>280500</v>
       </c>
+      <c r="F175" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -5532,6 +6474,9 @@
       <c r="E176" t="n">
         <v>625000</v>
       </c>
+      <c r="F176" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -5549,6 +6494,9 @@
       <c r="E177" t="n">
         <v>3500000</v>
       </c>
+      <c r="F177" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -5566,6 +6514,9 @@
       <c r="E178" t="n">
         <v>718500</v>
       </c>
+      <c r="F178" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -5583,6 +6534,9 @@
       <c r="E179" t="n">
         <v>125000</v>
       </c>
+      <c r="F179" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -5600,6 +6554,9 @@
       <c r="E180" t="n">
         <v>1075000</v>
       </c>
+      <c r="F180" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -5617,6 +6574,9 @@
       <c r="E181" t="n">
         <v>255000</v>
       </c>
+      <c r="F181" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -5634,6 +6594,9 @@
       <c r="E182" t="n">
         <v>23640</v>
       </c>
+      <c r="F182" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5651,6 +6614,9 @@
       <c r="E183" t="n">
         <v>51781</v>
       </c>
+      <c r="F183" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5668,6 +6634,9 @@
       <c r="E184" t="n">
         <v>150030</v>
       </c>
+      <c r="F184" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5685,6 +6654,9 @@
       <c r="E185" t="n">
         <v>16000</v>
       </c>
+      <c r="F185" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5702,6 +6674,9 @@
       <c r="E186" t="n">
         <v>75000</v>
       </c>
+      <c r="F186" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5719,6 +6694,9 @@
       <c r="E187" t="n">
         <v>90000</v>
       </c>
+      <c r="F187" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5736,6 +6714,9 @@
       <c r="E188" t="n">
         <v>84250</v>
       </c>
+      <c r="F188" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5753,6 +6734,9 @@
       <c r="E189" t="n">
         <v>43300</v>
       </c>
+      <c r="F189" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5770,6 +6754,9 @@
       <c r="E190" t="n">
         <v>22500</v>
       </c>
+      <c r="F190" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5787,6 +6774,9 @@
       <c r="E191" t="n">
         <v>20000</v>
       </c>
+      <c r="F191" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5804,6 +6794,9 @@
       <c r="E192" t="n">
         <v>128182</v>
       </c>
+      <c r="F192" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5821,6 +6814,9 @@
       <c r="E193" t="n">
         <v>260350</v>
       </c>
+      <c r="F193" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5838,6 +6834,9 @@
       <c r="E194" t="n">
         <v>67500</v>
       </c>
+      <c r="F194" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5855,6 +6854,9 @@
       <c r="E195" t="n">
         <v>41151</v>
       </c>
+      <c r="F195" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5872,6 +6874,9 @@
       <c r="E196" t="n">
         <v>5500000</v>
       </c>
+      <c r="F196" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5889,6 +6894,9 @@
       <c r="E197" t="n">
         <v>720000</v>
       </c>
+      <c r="F197" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5906,6 +6914,9 @@
       <c r="E198" t="n">
         <v>450000</v>
       </c>
+      <c r="F198" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5923,6 +6934,9 @@
       <c r="E199" t="n">
         <v>500052</v>
       </c>
+      <c r="F199" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5940,6 +6954,9 @@
       <c r="E200" t="n">
         <v>12555</v>
       </c>
+      <c r="F200" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5957,6 +6974,9 @@
       <c r="E201" t="n">
         <v>15000000</v>
       </c>
+      <c r="F201" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5974,6 +6994,9 @@
       <c r="E202" t="n">
         <v>150000</v>
       </c>
+      <c r="F202" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5991,6 +7014,9 @@
       <c r="E203" t="n">
         <v>25000</v>
       </c>
+      <c r="F203" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -6008,6 +7034,9 @@
       <c r="E204" t="n">
         <v>50000</v>
       </c>
+      <c r="F204" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -6025,6 +7054,9 @@
       <c r="E205" t="n">
         <v>61000</v>
       </c>
+      <c r="F205" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -6042,6 +7074,9 @@
       <c r="E206" t="n">
         <v>110500</v>
       </c>
+      <c r="F206" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -6059,6 +7094,9 @@
       <c r="E207" t="n">
         <v>150000</v>
       </c>
+      <c r="F207" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -6076,6 +7114,9 @@
       <c r="E208" t="n">
         <v>50000</v>
       </c>
+      <c r="F208" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -6093,6 +7134,9 @@
       <c r="E209" t="n">
         <v>300000</v>
       </c>
+      <c r="F209" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -6110,6 +7154,9 @@
       <c r="E210" t="n">
         <v>1065000</v>
       </c>
+      <c r="F210" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -6127,6 +7174,9 @@
       <c r="E211" t="n">
         <v>18000</v>
       </c>
+      <c r="F211" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -6144,6 +7194,9 @@
       <c r="E212" t="n">
         <v>10420</v>
       </c>
+      <c r="F212" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -6161,6 +7214,9 @@
       <c r="E213" t="n">
         <v>230000</v>
       </c>
+      <c r="F213" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -6178,6 +7234,9 @@
       <c r="E214" t="n">
         <v>25000</v>
       </c>
+      <c r="F214" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -6195,6 +7254,9 @@
       <c r="E215" t="n">
         <v>193881</v>
       </c>
+      <c r="F215" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -6212,6 +7274,9 @@
       <c r="E216" t="n">
         <v>147405</v>
       </c>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -6229,6 +7294,9 @@
       <c r="E217" t="n">
         <v>82021</v>
       </c>
+      <c r="F217" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -6246,6 +7314,9 @@
       <c r="E218" t="n">
         <v>60000</v>
       </c>
+      <c r="F218" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -6263,6 +7334,9 @@
       <c r="E219" t="n">
         <v>60000</v>
       </c>
+      <c r="F219" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -6280,6 +7354,9 @@
       <c r="E220" t="n">
         <v>60000</v>
       </c>
+      <c r="F220" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -6297,6 +7374,9 @@
       <c r="E221" t="n">
         <v>60000</v>
       </c>
+      <c r="F221" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -6314,6 +7394,9 @@
       <c r="E222" t="n">
         <v>144900</v>
       </c>
+      <c r="F222" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6331,6 +7414,9 @@
       <c r="E223" t="n">
         <v>283140</v>
       </c>
+      <c r="F223" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6348,6 +7434,9 @@
       <c r="E224" t="n">
         <v>25750</v>
       </c>
+      <c r="F224" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6365,6 +7454,9 @@
       <c r="E225" t="n">
         <v>128610</v>
       </c>
+      <c r="F225" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6382,6 +7474,9 @@
       <c r="E226" t="n">
         <v>45000</v>
       </c>
+      <c r="F226" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6399,6 +7494,9 @@
       <c r="E227" t="n">
         <v>77440</v>
       </c>
+      <c r="F227" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6416,6 +7514,9 @@
       <c r="E228" t="n">
         <v>15000</v>
       </c>
+      <c r="F228" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6433,6 +7534,9 @@
       <c r="E229" t="n">
         <v>639000</v>
       </c>
+      <c r="F229" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6450,6 +7554,9 @@
       <c r="E230" t="n">
         <v>50500</v>
       </c>
+      <c r="F230" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6467,6 +7574,9 @@
       <c r="E231" t="n">
         <v>80313</v>
       </c>
+      <c r="F231" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6484,6 +7594,9 @@
       <c r="E232" t="n">
         <v>30000</v>
       </c>
+      <c r="F232" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6501,6 +7614,9 @@
       <c r="E233" t="n">
         <v>10000</v>
       </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6518,6 +7634,9 @@
       <c r="E234" t="n">
         <v>12500</v>
       </c>
+      <c r="F234" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6535,6 +7654,9 @@
       <c r="E235" t="n">
         <v>24000</v>
       </c>
+      <c r="F235" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6552,6 +7674,9 @@
       <c r="E236" t="n">
         <v>219300</v>
       </c>
+      <c r="F236" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6569,6 +7694,9 @@
       <c r="E237" t="n">
         <v>48000</v>
       </c>
+      <c r="F237" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6586,6 +7714,9 @@
       <c r="E238" t="n">
         <v>237600</v>
       </c>
+      <c r="F238" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6603,6 +7734,9 @@
       <c r="E239" t="n">
         <v>44100</v>
       </c>
+      <c r="F239" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6620,6 +7754,9 @@
       <c r="E240" t="n">
         <v>254400</v>
       </c>
+      <c r="F240" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6637,6 +7774,9 @@
       <c r="E241" t="n">
         <v>165000</v>
       </c>
+      <c r="F241" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6654,6 +7794,9 @@
       <c r="E242" t="n">
         <v>150000</v>
       </c>
+      <c r="F242" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6671,6 +7814,9 @@
       <c r="E243" t="n">
         <v>60000000</v>
       </c>
+      <c r="F243" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6688,6 +7834,9 @@
       <c r="E244" t="n">
         <v>375000</v>
       </c>
+      <c r="F244" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6705,6 +7854,9 @@
       <c r="E245" t="n">
         <v>36900</v>
       </c>
+      <c r="F245" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6722,6 +7874,9 @@
       <c r="E246" t="n">
         <v>35000</v>
       </c>
+      <c r="F246" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6739,6 +7894,9 @@
       <c r="E247" t="n">
         <v>19669</v>
       </c>
+      <c r="F247" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6756,6 +7914,9 @@
       <c r="E248" t="n">
         <v>105000</v>
       </c>
+      <c r="F248" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6773,6 +7934,9 @@
       <c r="E249" t="n">
         <v>105753</v>
       </c>
+      <c r="F249" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6790,6 +7954,9 @@
       <c r="E250" t="n">
         <v>25000</v>
       </c>
+      <c r="F250" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6807,6 +7974,9 @@
       <c r="E251" t="n">
         <v>25661</v>
       </c>
+      <c r="F251" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6824,6 +7994,9 @@
       <c r="E252" t="n">
         <v>376000</v>
       </c>
+      <c r="F252" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6841,6 +8014,9 @@
       <c r="E253" t="n">
         <v>12000</v>
       </c>
+      <c r="F253" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6858,6 +8034,9 @@
       <c r="E254" t="n">
         <v>50500</v>
       </c>
+      <c r="F254" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6875,6 +8054,9 @@
       <c r="E255" t="n">
         <v>17410</v>
       </c>
+      <c r="F255" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6892,6 +8074,9 @@
       <c r="E256" t="n">
         <v>1800505</v>
       </c>
+      <c r="F256" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6909,6 +8094,9 @@
       <c r="E257" t="n">
         <v>45360</v>
       </c>
+      <c r="F257" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6926,6 +8114,9 @@
       <c r="E258" t="n">
         <v>76800</v>
       </c>
+      <c r="F258" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6943,6 +8134,9 @@
       <c r="E259" t="n">
         <v>25011</v>
       </c>
+      <c r="F259" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6960,6 +8154,9 @@
       <c r="E260" t="n">
         <v>104140</v>
       </c>
+      <c r="F260" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6977,6 +8174,9 @@
       <c r="E261" t="n">
         <v>28500</v>
       </c>
+      <c r="F261" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6994,6 +8194,9 @@
       <c r="E262" t="n">
         <v>282420</v>
       </c>
+      <c r="F262" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7011,6 +8214,9 @@
       <c r="E263" t="n">
         <v>34500</v>
       </c>
+      <c r="F263" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7028,6 +8234,9 @@
       <c r="E264" t="n">
         <v>12000008</v>
       </c>
+      <c r="F264" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7045,6 +8254,9 @@
       <c r="E265" t="n">
         <v>21600</v>
       </c>
+      <c r="F265" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7062,6 +8274,9 @@
       <c r="E266" t="n">
         <v>45000</v>
       </c>
+      <c r="F266" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7079,6 +8294,9 @@
       <c r="E267" t="n">
         <v>37800</v>
       </c>
+      <c r="F267" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7096,6 +8314,9 @@
       <c r="E268" t="n">
         <v>61500</v>
       </c>
+      <c r="F268" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7113,6 +8334,9 @@
       <c r="E269" t="n">
         <v>15600</v>
       </c>
+      <c r="F269" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7130,6 +8354,9 @@
       <c r="E270" t="n">
         <v>12000</v>
       </c>
+      <c r="F270" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7147,6 +8374,9 @@
       <c r="E271" t="n">
         <v>13000</v>
       </c>
+      <c r="F271" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7164,6 +8394,9 @@
       <c r="E272" t="n">
         <v>12000</v>
       </c>
+      <c r="F272" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7181,6 +8414,9 @@
       <c r="E273" t="n">
         <v>100000</v>
       </c>
+      <c r="F273" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7198,6 +8434,9 @@
       <c r="E274" t="n">
         <v>50014</v>
       </c>
+      <c r="F274" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7215,6 +8454,9 @@
       <c r="E275" t="n">
         <v>12001</v>
       </c>
+      <c r="F275" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7232,6 +8474,9 @@
       <c r="E276" t="n">
         <v>450000</v>
       </c>
+      <c r="F276" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7249,6 +8494,9 @@
       <c r="E277" t="n">
         <v>70000</v>
       </c>
+      <c r="F277" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7266,6 +8514,9 @@
       <c r="E278" t="n">
         <v>225000</v>
       </c>
+      <c r="F278" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7283,6 +8534,9 @@
       <c r="E279" t="n">
         <v>36000</v>
       </c>
+      <c r="F279" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7300,6 +8554,9 @@
       <c r="E280" t="n">
         <v>1381000</v>
       </c>
+      <c r="F280" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7317,6 +8574,9 @@
       <c r="E281" t="n">
         <v>1519000</v>
       </c>
+      <c r="F281" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -7334,6 +8594,9 @@
       <c r="E282" t="n">
         <v>11400</v>
       </c>
+      <c r="F282" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -7351,6 +8614,9 @@
       <c r="E283" t="n">
         <v>60000</v>
       </c>
+      <c r="F283" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7368,6 +8634,9 @@
       <c r="E284" t="n">
         <v>20000</v>
       </c>
+      <c r="F284" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -7385,6 +8654,9 @@
       <c r="E285" t="n">
         <v>10000</v>
       </c>
+      <c r="F285" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7402,6 +8674,9 @@
       <c r="E286" t="n">
         <v>168397</v>
       </c>
+      <c r="F286" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7419,6 +8694,9 @@
       <c r="E287" t="n">
         <v>59540</v>
       </c>
+      <c r="F287" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7436,6 +8714,9 @@
       <c r="E288" t="n">
         <v>13002</v>
       </c>
+      <c r="F288" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7453,6 +8734,9 @@
       <c r="E289" t="n">
         <v>55495</v>
       </c>
+      <c r="F289" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7470,6 +8754,9 @@
       <c r="E290" t="n">
         <v>52000</v>
       </c>
+      <c r="F290" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7487,6 +8774,9 @@
       <c r="E291" t="n">
         <v>30000</v>
       </c>
+      <c r="F291" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7504,6 +8794,9 @@
       <c r="E292" t="n">
         <v>4500000</v>
       </c>
+      <c r="F292" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7521,6 +8814,9 @@
       <c r="E293" t="n">
         <v>360000</v>
       </c>
+      <c r="F293" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -7538,6 +8834,9 @@
       <c r="E294" t="n">
         <v>11400</v>
       </c>
+      <c r="F294" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -7555,6 +8854,9 @@
       <c r="E295" t="n">
         <v>15861</v>
       </c>
+      <c r="F295" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -7572,6 +8874,9 @@
       <c r="E296" t="n">
         <v>15000</v>
       </c>
+      <c r="F296" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -7589,6 +8894,9 @@
       <c r="E297" t="n">
         <v>23250</v>
       </c>
+      <c r="F297" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -7606,6 +8914,9 @@
       <c r="E298" t="n">
         <v>15000</v>
       </c>
+      <c r="F298" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -7623,6 +8934,9 @@
       <c r="E299" t="n">
         <v>60000</v>
       </c>
+      <c r="F299" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -7640,6 +8954,9 @@
       <c r="E300" t="n">
         <v>501110</v>
       </c>
+      <c r="F300" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -7657,6 +8974,9 @@
       <c r="E301" t="n">
         <v>11012</v>
       </c>
+      <c r="F301" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7674,6 +8994,9 @@
       <c r="E302" t="n">
         <v>75000</v>
       </c>
+      <c r="F302" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -7691,6 +9014,9 @@
       <c r="E303" t="n">
         <v>10905</v>
       </c>
+      <c r="F303" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -7708,6 +9034,9 @@
       <c r="E304" t="n">
         <v>115000</v>
       </c>
+      <c r="F304" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -7725,6 +9054,9 @@
       <c r="E305" t="n">
         <v>112000</v>
       </c>
+      <c r="F305" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -7742,6 +9074,9 @@
       <c r="E306" t="n">
         <v>40000</v>
       </c>
+      <c r="F306" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -7759,6 +9094,9 @@
       <c r="E307" t="n">
         <v>84609</v>
       </c>
+      <c r="F307" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -7776,6 +9114,9 @@
       <c r="E308" t="n">
         <v>56488</v>
       </c>
+      <c r="F308" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -7793,6 +9134,9 @@
       <c r="E309" t="n">
         <v>25000</v>
       </c>
+      <c r="F309" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -7810,6 +9154,9 @@
       <c r="E310" t="n">
         <v>110000</v>
       </c>
+      <c r="F310" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -7827,6 +9174,9 @@
       <c r="E311" t="n">
         <v>4200000</v>
       </c>
+      <c r="F311" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -7844,6 +9194,9 @@
       <c r="E312" t="n">
         <v>41837</v>
       </c>
+      <c r="F312" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -7861,6 +9214,9 @@
       <c r="E313" t="n">
         <v>12003</v>
       </c>
+      <c r="F313" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -7878,6 +9234,9 @@
       <c r="E314" t="n">
         <v>20000</v>
       </c>
+      <c r="F314" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -7895,6 +9254,9 @@
       <c r="E315" t="n">
         <v>10000</v>
       </c>
+      <c r="F315" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -7912,6 +9274,9 @@
       <c r="E316" t="n">
         <v>74000</v>
       </c>
+      <c r="F316" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -7929,6 +9294,9 @@
       <c r="E317" t="n">
         <v>10000000</v>
       </c>
+      <c r="F317" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -7946,6 +9314,9 @@
       <c r="E318" t="n">
         <v>30000</v>
       </c>
+      <c r="F318" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -7963,6 +9334,9 @@
       <c r="E319" t="n">
         <v>14534</v>
       </c>
+      <c r="F319" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -7980,6 +9354,9 @@
       <c r="E320" t="n">
         <v>23461</v>
       </c>
+      <c r="F320" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -7997,6 +9374,9 @@
       <c r="E321" t="n">
         <v>10000</v>
       </c>
+      <c r="F321" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -8014,6 +9394,9 @@
       <c r="E322" t="n">
         <v>26460</v>
       </c>
+      <c r="F322" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -8031,6 +9414,9 @@
       <c r="E323" t="n">
         <v>90000</v>
       </c>
+      <c r="F323" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -8048,6 +9434,9 @@
       <c r="E324" t="n">
         <v>110000</v>
       </c>
+      <c r="F324" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -8065,6 +9454,9 @@
       <c r="E325" t="n">
         <v>18200</v>
       </c>
+      <c r="F325" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -8082,6 +9474,9 @@
       <c r="E326" t="n">
         <v>23776</v>
       </c>
+      <c r="F326" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -8099,6 +9494,9 @@
       <c r="E327" t="n">
         <v>10000</v>
       </c>
+      <c r="F327" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -8116,6 +9514,9 @@
       <c r="E328" t="n">
         <v>126025</v>
       </c>
+      <c r="F328" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -8133,6 +9534,9 @@
       <c r="E329" t="n">
         <v>25400</v>
       </c>
+      <c r="F329" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -8150,6 +9554,9 @@
       <c r="E330" t="n">
         <v>100000</v>
       </c>
+      <c r="F330" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -8167,6 +9574,9 @@
       <c r="E331" t="n">
         <v>12000</v>
       </c>
+      <c r="F331" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -8184,6 +9594,9 @@
       <c r="E332" t="n">
         <v>228650</v>
       </c>
+      <c r="F332" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -8201,6 +9614,9 @@
       <c r="E333" t="n">
         <v>90590</v>
       </c>
+      <c r="F333" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -8218,6 +9634,9 @@
       <c r="E334" t="n">
         <v>75506</v>
       </c>
+      <c r="F334" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -8235,6 +9654,9 @@
       <c r="E335" t="n">
         <v>14000</v>
       </c>
+      <c r="F335" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -8252,6 +9674,9 @@
       <c r="E336" t="n">
         <v>455005</v>
       </c>
+      <c r="F336" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -8269,6 +9694,9 @@
       <c r="E337" t="n">
         <v>59800</v>
       </c>
+      <c r="F337" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -8286,6 +9714,9 @@
       <c r="E338" t="n">
         <v>14500000</v>
       </c>
+      <c r="F338" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -8303,6 +9734,9 @@
       <c r="E339" t="n">
         <v>1080000</v>
       </c>
+      <c r="F339" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -8320,6 +9754,9 @@
       <c r="E340" t="n">
         <v>286100</v>
       </c>
+      <c r="F340" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -8337,6 +9774,9 @@
       <c r="E341" t="n">
         <v>62900</v>
       </c>
+      <c r="F341" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -8354,6 +9794,9 @@
       <c r="E342" t="n">
         <v>11839</v>
       </c>
+      <c r="F342" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -8371,6 +9814,9 @@
       <c r="E343" t="n">
         <v>23717</v>
       </c>
+      <c r="F343" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -8388,6 +9834,9 @@
       <c r="E344" t="n">
         <v>10500</v>
       </c>
+      <c r="F344" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -8405,6 +9854,9 @@
       <c r="E345" t="n">
         <v>1760000</v>
       </c>
+      <c r="F345" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -8422,6 +9874,9 @@
       <c r="E346" t="n">
         <v>79095</v>
       </c>
+      <c r="F346" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -8439,6 +9894,9 @@
       <c r="E347" t="n">
         <v>1036166</v>
       </c>
+      <c r="F347" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -8456,6 +9914,9 @@
       <c r="E348" t="n">
         <v>14000</v>
       </c>
+      <c r="F348" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -8473,6 +9934,9 @@
       <c r="E349" t="n">
         <v>11028</v>
       </c>
+      <c r="F349" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -8490,6 +9954,9 @@
       <c r="E350" t="n">
         <v>78738</v>
       </c>
+      <c r="F350" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -8507,6 +9974,9 @@
       <c r="E351" t="n">
         <v>120000</v>
       </c>
+      <c r="F351" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -8524,6 +9994,9 @@
       <c r="E352" t="n">
         <v>43000</v>
       </c>
+      <c r="F352" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -8541,6 +10014,9 @@
       <c r="E353" t="n">
         <v>27500</v>
       </c>
+      <c r="F353" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -8558,6 +10034,9 @@
       <c r="E354" t="n">
         <v>14700</v>
       </c>
+      <c r="F354" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -8575,6 +10054,9 @@
       <c r="E355" t="n">
         <v>16083</v>
       </c>
+      <c r="F355" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -8592,6 +10074,9 @@
       <c r="E356" t="n">
         <v>26000</v>
       </c>
+      <c r="F356" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -8609,6 +10094,9 @@
       <c r="E357" t="n">
         <v>31800</v>
       </c>
+      <c r="F357" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -8626,6 +10114,9 @@
       <c r="E358" t="n">
         <v>21521</v>
       </c>
+      <c r="F358" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -8643,6 +10134,9 @@
       <c r="E359" t="n">
         <v>16003</v>
       </c>
+      <c r="F359" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -8660,6 +10154,9 @@
       <c r="E360" t="n">
         <v>31500</v>
       </c>
+      <c r="F360" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -8677,6 +10174,9 @@
       <c r="E361" t="n">
         <v>142290</v>
       </c>
+      <c r="F361" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -8694,6 +10194,9 @@
       <c r="E362" t="n">
         <v>44000</v>
       </c>
+      <c r="F362" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -8709,6 +10212,9 @@
         <v>0</v>
       </c>
       <c r="E363"/>
+      <c r="F363" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -8726,6 +10232,9 @@
       <c r="E364" t="n">
         <v>17201</v>
       </c>
+      <c r="F364" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -8743,6 +10252,9 @@
       <c r="E365" t="n">
         <v>24304</v>
       </c>
+      <c r="F365" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -8760,6 +10272,9 @@
       <c r="E366" t="n">
         <v>67500</v>
       </c>
+      <c r="F366" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -8777,6 +10292,9 @@
       <c r="E367" t="n">
         <v>11418</v>
       </c>
+      <c r="F367" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -8794,6 +10312,9 @@
       <c r="E368" t="n">
         <v>167250</v>
       </c>
+      <c r="F368" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -8811,6 +10332,9 @@
       <c r="E369" t="n">
         <v>40002</v>
       </c>
+      <c r="F369" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -8828,6 +10352,9 @@
       <c r="E370" t="n">
         <v>44000</v>
       </c>
+      <c r="F370" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -8845,6 +10372,9 @@
       <c r="E371" t="n">
         <v>12500</v>
       </c>
+      <c r="F371" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -8862,6 +10392,9 @@
       <c r="E372" t="n">
         <v>17500</v>
       </c>
+      <c r="F372" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -8879,6 +10412,9 @@
       <c r="E373" t="n">
         <v>40000</v>
       </c>
+      <c r="F373" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -8896,6 +10432,9 @@
       <c r="E374" t="n">
         <v>60000</v>
       </c>
+      <c r="F374" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -8913,6 +10452,9 @@
       <c r="E375" t="n">
         <v>16350</v>
       </c>
+      <c r="F375" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -8929,6 +10471,9 @@
       </c>
       <c r="E376" t="n">
         <v>196745</v>
+      </c>
+      <c r="F376" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -8961,6 +10506,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8978,6 +10526,9 @@
       <c r="E2" t="n">
         <v>150060</v>
       </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8995,6 +10546,9 @@
       <c r="E3" t="n">
         <v>46000</v>
       </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9012,6 +10566,9 @@
       <c r="E4" t="n">
         <v>640032</v>
       </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -9029,6 +10586,9 @@
       <c r="E5" t="n">
         <v>9062000</v>
       </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -9046,6 +10606,9 @@
       <c r="E6" t="n">
         <v>41357</v>
       </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -9063,6 +10626,9 @@
       <c r="E7" t="n">
         <v>40000</v>
       </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9080,6 +10646,9 @@
       <c r="E8" t="n">
         <v>2481</v>
       </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -9097,6 +10666,9 @@
       <c r="E9" t="n">
         <v>8000000</v>
       </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -9114,6 +10686,9 @@
       <c r="E10" t="n">
         <v>458855</v>
       </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -9131,6 +10706,9 @@
       <c r="E11" t="n">
         <v>90000</v>
       </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -9148,6 +10726,9 @@
       <c r="E12" t="n">
         <v>825223</v>
       </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -9165,6 +10746,9 @@
       <c r="E13" t="n">
         <v>15000</v>
       </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -9182,6 +10766,9 @@
       <c r="E14" t="n">
         <v>1013000</v>
       </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -9199,6 +10786,9 @@
       <c r="E15" t="n">
         <v>1240000</v>
       </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -9216,6 +10806,9 @@
       <c r="E16" t="n">
         <v>19624000</v>
       </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -9233,6 +10826,9 @@
       <c r="E17" t="n">
         <v>1350008</v>
       </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -9250,6 +10846,9 @@
       <c r="E18" t="n">
         <v>5719000</v>
       </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -9267,6 +10866,9 @@
       <c r="E19" t="n">
         <v>1954571</v>
       </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -9284,6 +10886,9 @@
       <c r="E20" t="n">
         <v>2460000</v>
       </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -9301,6 +10906,9 @@
       <c r="E21" t="n">
         <v>1000000</v>
       </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -9318,6 +10926,9 @@
       <c r="E22" t="n">
         <v>105000</v>
       </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -9335,6 +10946,9 @@
       <c r="E23" t="n">
         <v>3150000</v>
       </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -9352,6 +10966,9 @@
       <c r="E24" t="n">
         <v>29622000</v>
       </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -9369,6 +10986,9 @@
       <c r="E25" t="n">
         <v>6531000</v>
       </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -9386,6 +11006,9 @@
       <c r="E26" t="n">
         <v>10000000</v>
       </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -9403,6 +11026,9 @@
       <c r="E27" t="n">
         <v>5923350</v>
       </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -9420,6 +11046,9 @@
       <c r="E28" t="n">
         <v>10000</v>
       </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -9437,6 +11066,9 @@
       <c r="E29" t="n">
         <v>240700</v>
       </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -9454,6 +11086,9 @@
       <c r="E30" t="n">
         <v>20000</v>
       </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -9471,6 +11106,9 @@
       <c r="E31" t="n">
         <v>1000000</v>
       </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -9488,6 +11126,9 @@
       <c r="E32" t="n">
         <v>8000000</v>
       </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -9505,6 +11146,9 @@
       <c r="E33" t="n">
         <v>140000</v>
       </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -9522,6 +11166,9 @@
       <c r="E34" t="n">
         <v>30000</v>
       </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -9539,6 +11186,9 @@
       <c r="E35" t="n">
         <v>33000</v>
       </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -9554,6 +11204,9 @@
         <v>0</v>
       </c>
       <c r="E36"/>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -9571,6 +11224,9 @@
       <c r="E37" t="n">
         <v>77000000</v>
       </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -9588,6 +11244,9 @@
       <c r="E38" t="n">
         <v>274000</v>
       </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -9605,6 +11264,9 @@
       <c r="E39" t="n">
         <v>340000</v>
       </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -9622,6 +11284,9 @@
       <c r="E40" t="n">
         <v>500000</v>
       </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -9639,6 +11304,9 @@
       <c r="E41" t="n">
         <v>93006</v>
       </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -9656,6 +11324,9 @@
       <c r="E42" t="n">
         <v>42000</v>
       </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -9673,6 +11344,9 @@
       <c r="E43" t="n">
         <v>900000</v>
       </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -9688,6 +11362,9 @@
         <v>0</v>
       </c>
       <c r="E44"/>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -9705,6 +11382,9 @@
       <c r="E45" t="n">
         <v>48631</v>
       </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -9722,6 +11402,9 @@
       <c r="E46" t="n">
         <v>50000</v>
       </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -9739,6 +11422,9 @@
       <c r="E47" t="n">
         <v>11000004</v>
       </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -9756,6 +11442,9 @@
       <c r="E48" t="n">
         <v>72000</v>
       </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -9773,6 +11462,9 @@
       <c r="E49" t="n">
         <v>1000058</v>
       </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9790,6 +11482,9 @@
       <c r="E50" t="n">
         <v>40000</v>
       </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9807,6 +11502,9 @@
       <c r="E51" t="n">
         <v>10000096</v>
       </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9824,6 +11522,9 @@
       <c r="E52" t="n">
         <v>1197799</v>
       </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9841,6 +11542,9 @@
       <c r="E53" t="n">
         <v>1881100</v>
       </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9858,6 +11562,9 @@
       <c r="E54" t="n">
         <v>70190</v>
       </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9875,6 +11582,9 @@
       <c r="E55" t="n">
         <v>170000</v>
       </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -9892,6 +11602,9 @@
       <c r="E56" t="n">
         <v>154000</v>
       </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -9909,6 +11622,9 @@
       <c r="E57" t="n">
         <v>41500</v>
       </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -9926,6 +11642,9 @@
       <c r="E58" t="n">
         <v>186000</v>
       </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -9943,6 +11662,9 @@
       <c r="E59" t="n">
         <v>230000</v>
       </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -9960,6 +11682,9 @@
       <c r="E60" t="n">
         <v>1000000</v>
       </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -9977,6 +11702,9 @@
       <c r="E61" t="n">
         <v>4033472</v>
       </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -9994,6 +11722,9 @@
       <c r="E62" t="n">
         <v>120000</v>
       </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -10011,6 +11742,9 @@
       <c r="E63" t="n">
         <v>22000150</v>
       </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -10028,6 +11762,9 @@
       <c r="E64" t="n">
         <v>300000</v>
       </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -10045,6 +11782,9 @@
       <c r="E65" t="n">
         <v>25475</v>
       </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -10062,6 +11802,9 @@
       <c r="E66" t="n">
         <v>200000</v>
       </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -10079,6 +11822,9 @@
       <c r="E67" t="n">
         <v>3649800</v>
       </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -10096,6 +11842,9 @@
       <c r="E68" t="n">
         <v>1000000</v>
       </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -10113,6 +11862,9 @@
       <c r="E69" t="n">
         <v>50000</v>
       </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -10130,6 +11882,9 @@
       <c r="E70" t="n">
         <v>10060</v>
       </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -10147,6 +11902,9 @@
       <c r="E71" t="n">
         <v>50650</v>
       </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -10164,6 +11922,9 @@
       <c r="E72" t="n">
         <v>100000</v>
       </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -10181,6 +11942,9 @@
       <c r="E73" t="n">
         <v>127000</v>
       </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -10198,6 +11962,9 @@
       <c r="E74" t="n">
         <v>87000</v>
       </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -10215,6 +11982,9 @@
       <c r="E75" t="n">
         <v>58500</v>
       </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -10232,6 +12002,9 @@
       <c r="E76" t="n">
         <v>3790000</v>
       </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -10249,6 +12022,9 @@
       <c r="E77" t="n">
         <v>232170</v>
       </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -10266,6 +12042,9 @@
       <c r="E78" t="n">
         <v>6000007</v>
       </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -10283,6 +12062,9 @@
       <c r="E79" t="n">
         <v>107500</v>
       </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -10300,6 +12082,9 @@
       <c r="E80" t="n">
         <v>126000</v>
       </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -10317,6 +12102,9 @@
       <c r="E81" t="n">
         <v>13500</v>
       </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -10334,6 +12122,9 @@
       <c r="E82" t="n">
         <v>1398324</v>
       </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -10351,6 +12142,9 @@
       <c r="E83" t="n">
         <v>25000</v>
       </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -10368,6 +12162,9 @@
       <c r="E84" t="n">
         <v>217000</v>
       </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -10385,6 +12182,9 @@
       <c r="E85" t="n">
         <v>12000</v>
       </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -10402,6 +12202,9 @@
       <c r="E86" t="n">
         <v>50000</v>
       </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -10419,6 +12222,9 @@
       <c r="E87" t="n">
         <v>21000</v>
       </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -10436,6 +12242,9 @@
       <c r="E88" t="n">
         <v>390150</v>
       </c>
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -10453,6 +12262,9 @@
       <c r="E89" t="n">
         <v>8000000</v>
       </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -10470,6 +12282,9 @@
       <c r="E90" t="n">
         <v>189800</v>
       </c>
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -10487,6 +12302,9 @@
       <c r="E91" t="n">
         <v>92701</v>
       </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -10502,6 +12320,9 @@
         <v>0</v>
       </c>
       <c r="E92"/>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -10519,6 +12340,9 @@
       <c r="E93" t="n">
         <v>50000</v>
       </c>
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -10536,6 +12360,9 @@
       <c r="E94" t="n">
         <v>105000</v>
       </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -10553,6 +12380,9 @@
       <c r="E95" t="n">
         <v>13864</v>
       </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -10570,6 +12400,9 @@
       <c r="E96" t="n">
         <v>506000</v>
       </c>
+      <c r="F96" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -10587,6 +12420,9 @@
       <c r="E97" t="n">
         <v>475000</v>
       </c>
+      <c r="F97" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -10604,6 +12440,9 @@
       <c r="E98" t="n">
         <v>51800</v>
       </c>
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -10621,6 +12460,9 @@
       <c r="E99" t="n">
         <v>100090</v>
       </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -10638,6 +12480,9 @@
       <c r="E100" t="n">
         <v>10000</v>
       </c>
+      <c r="F100" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -10655,6 +12500,9 @@
       <c r="E101" t="n">
         <v>400000</v>
       </c>
+      <c r="F101" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -10672,6 +12520,9 @@
       <c r="E102" t="n">
         <v>109257</v>
       </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -10689,6 +12540,9 @@
       <c r="E103" t="n">
         <v>100000</v>
       </c>
+      <c r="F103" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -10706,6 +12560,9 @@
       <c r="E104" t="n">
         <v>25000</v>
       </c>
+      <c r="F104" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -10723,6 +12580,9 @@
       <c r="E105" t="n">
         <v>25000</v>
       </c>
+      <c r="F105" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -10740,6 +12600,9 @@
       <c r="E106" t="n">
         <v>9960099</v>
       </c>
+      <c r="F106" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -10757,6 +12620,9 @@
       <c r="E107" t="n">
         <v>50000</v>
       </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -10774,6 +12640,9 @@
       <c r="E108" t="n">
         <v>30000</v>
       </c>
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -10791,6 +12660,9 @@
       <c r="E109" t="n">
         <v>136255</v>
       </c>
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -10808,6 +12680,9 @@
       <c r="E110" t="n">
         <v>394000</v>
       </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -10825,6 +12700,9 @@
       <c r="E111" t="n">
         <v>75135</v>
       </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -10842,6 +12720,9 @@
       <c r="E112" t="n">
         <v>30000</v>
       </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -10859,6 +12740,9 @@
       <c r="E113" t="n">
         <v>12000</v>
       </c>
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -10876,6 +12760,9 @@
       <c r="E114" t="n">
         <v>25000</v>
       </c>
+      <c r="F114" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -10893,6 +12780,9 @@
       <c r="E115" t="n">
         <v>10000</v>
       </c>
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -10910,6 +12800,9 @@
       <c r="E116" t="n">
         <v>11037</v>
       </c>
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -10927,6 +12820,9 @@
       <c r="E117" t="n">
         <v>79800</v>
       </c>
+      <c r="F117" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -10944,6 +12840,9 @@
       <c r="E118" t="n">
         <v>193000</v>
       </c>
+      <c r="F118" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -10961,6 +12860,9 @@
       <c r="E119" t="n">
         <v>56000</v>
       </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -10978,6 +12880,9 @@
       <c r="E120" t="n">
         <v>13800</v>
       </c>
+      <c r="F120" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -10995,6 +12900,9 @@
       <c r="E121" t="n">
         <v>110000</v>
       </c>
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -11012,6 +12920,9 @@
       <c r="E122" t="n">
         <v>1580000</v>
       </c>
+      <c r="F122" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -11029,6 +12940,9 @@
       <c r="E123" t="n">
         <v>78300</v>
       </c>
+      <c r="F123" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -11046,6 +12960,9 @@
       <c r="E124" t="n">
         <v>15600</v>
       </c>
+      <c r="F124" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -11063,6 +12980,9 @@
       <c r="E125" t="n">
         <v>15000</v>
       </c>
+      <c r="F125" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -11078,6 +12998,9 @@
         <v>0</v>
       </c>
       <c r="E126"/>
+      <c r="F126" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -11095,6 +13018,9 @@
       <c r="E127" t="n">
         <v>150000</v>
       </c>
+      <c r="F127" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -11112,6 +13038,9 @@
       <c r="E128" t="n">
         <v>45846</v>
       </c>
+      <c r="F128" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -11129,6 +13058,9 @@
       <c r="E129" t="n">
         <v>46000</v>
       </c>
+      <c r="F129" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -11146,6 +13078,9 @@
       <c r="E130" t="n">
         <v>24900</v>
       </c>
+      <c r="F130" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -11163,6 +13098,9 @@
       <c r="E131" t="n">
         <v>18000</v>
       </c>
+      <c r="F131" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -11180,6 +13118,9 @@
       <c r="E132" t="n">
         <v>14400</v>
       </c>
+      <c r="F132" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -11197,6 +13138,9 @@
       <c r="E133" t="n">
         <v>11000</v>
       </c>
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -11214,6 +13158,9 @@
       <c r="E134" t="n">
         <v>40000</v>
       </c>
+      <c r="F134" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -11231,6 +13178,9 @@
       <c r="E135" t="n">
         <v>10500</v>
       </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -11248,6 +13198,9 @@
       <c r="E136" t="n">
         <v>205500</v>
       </c>
+      <c r="F136" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -11265,6 +13218,9 @@
       <c r="E137" t="n">
         <v>36000</v>
       </c>
+      <c r="F137" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -11280,6 +13236,9 @@
         <v>0</v>
       </c>
       <c r="E138"/>
+      <c r="F138" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -11297,6 +13256,9 @@
       <c r="E139" t="n">
         <v>12000</v>
       </c>
+      <c r="F139" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -11314,6 +13276,9 @@
       <c r="E140" t="n">
         <v>41133</v>
       </c>
+      <c r="F140" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -11331,6 +13296,9 @@
       <c r="E141" t="n">
         <v>174300</v>
       </c>
+      <c r="F141" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -11348,6 +13316,9 @@
       <c r="E142" t="n">
         <v>14400</v>
       </c>
+      <c r="F142" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -11365,6 +13336,9 @@
       <c r="E143" t="n">
         <v>30000</v>
       </c>
+      <c r="F143" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -11382,6 +13356,9 @@
       <c r="E144" t="n">
         <v>13800</v>
       </c>
+      <c r="F144" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -11399,6 +13376,9 @@
       <c r="E145" t="n">
         <v>22273</v>
       </c>
+      <c r="F145" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -11416,6 +13396,9 @@
       <c r="E146" t="n">
         <v>2503700</v>
       </c>
+      <c r="F146" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -11433,6 +13416,9 @@
       <c r="E147" t="n">
         <v>7500</v>
       </c>
+      <c r="F147" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -11450,6 +13436,9 @@
       <c r="E148" t="n">
         <v>177000</v>
       </c>
+      <c r="F148" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -11467,6 +13456,9 @@
       <c r="E149" t="n">
         <v>45000</v>
       </c>
+      <c r="F149" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -11484,6 +13476,9 @@
       <c r="E150" t="n">
         <v>16200</v>
       </c>
+      <c r="F150" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -11501,6 +13496,9 @@
       <c r="E151" t="n">
         <v>18000</v>
       </c>
+      <c r="F151" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -11518,6 +13516,9 @@
       <c r="E152" t="n">
         <v>39600</v>
       </c>
+      <c r="F152" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -11535,6 +13536,9 @@
       <c r="E153" t="n">
         <v>10000</v>
       </c>
+      <c r="F153" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -11552,6 +13556,9 @@
       <c r="E154" t="n">
         <v>1800000</v>
       </c>
+      <c r="F154" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -11569,6 +13576,9 @@
       <c r="E155" t="n">
         <v>45120</v>
       </c>
+      <c r="F155" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -11586,6 +13596,9 @@
       <c r="E156" t="n">
         <v>108000</v>
       </c>
+      <c r="F156" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -11603,6 +13616,9 @@
       <c r="E157" t="n">
         <v>83370</v>
       </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -11620,6 +13636,9 @@
       <c r="E158" t="n">
         <v>600000</v>
       </c>
+      <c r="F158" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -11637,6 +13656,9 @@
       <c r="E159" t="n">
         <v>15100</v>
       </c>
+      <c r="F159" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -11654,6 +13676,9 @@
       <c r="E160" t="n">
         <v>12235</v>
       </c>
+      <c r="F160" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -11669,6 +13694,9 @@
         <v>0</v>
       </c>
       <c r="E161"/>
+      <c r="F161" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -11686,6 +13714,9 @@
       <c r="E162" t="n">
         <v>49800</v>
       </c>
+      <c r="F162" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -11703,6 +13734,9 @@
       <c r="E163" t="n">
         <v>228000</v>
       </c>
+      <c r="F163" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -11720,6 +13754,9 @@
       <c r="E164" t="n">
         <v>509625</v>
       </c>
+      <c r="F164" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -11737,6 +13774,9 @@
       <c r="E165" t="n">
         <v>13666</v>
       </c>
+      <c r="F165" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -11754,6 +13794,9 @@
       <c r="E166" t="n">
         <v>80301</v>
       </c>
+      <c r="F166" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -11771,6 +13814,9 @@
       <c r="E167" t="n">
         <v>72000</v>
       </c>
+      <c r="F167" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -11788,6 +13834,9 @@
       <c r="E168" t="n">
         <v>5600</v>
       </c>
+      <c r="F168" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -11805,6 +13854,9 @@
       <c r="E169" t="n">
         <v>36003</v>
       </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -11821,6 +13873,9 @@
       </c>
       <c r="E170" t="n">
         <v>15000</v>
+      </c>
+      <c r="F170" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
